--- a/grade/grade.xlsx
+++ b/grade/grade.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/github/political_ideology/grade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E822CB98-1B2B-344C-BA59-A0CF8D788A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFB9BAD-814F-9B4D-BB75-E476B148198C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="600" windowWidth="24700" windowHeight="15780" xr2:uid="{941A1975-B2FB-CF4E-89B2-5D3356893B07}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -437,7 +437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65BD18F-588F-494E-BBF3-3274E9DBAE61}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -495,11 +497,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <f>AVERAGE(B2:B3)</f>
+        <f>ROUND(AVERAGE(B2:B3),2)</f>
         <v>87</v>
       </c>
       <c r="C4" s="1">
-        <f>AVERAGE(C2:C3)</f>
+        <f>ROUND(AVERAGE(C2:C3),2)</f>
         <v>87</v>
       </c>
       <c r="D4" s="1" t="str">

--- a/grade/grade.xlsx
+++ b/grade/grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/github/political_ideology/grade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFB9BAD-814F-9B4D-BB75-E476B148198C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3D76B4-6785-E14D-BCD8-D7F4D8159920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="600" windowWidth="24700" windowHeight="15780" xr2:uid="{941A1975-B2FB-CF4E-89B2-5D3356893B07}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -62,6 +62,10 @@
   </si>
   <si>
     <t>423__02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade_I</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -435,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65BD18F-588F-494E-BBF3-3274E9DBAE61}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -446,7 +450,7 @@
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,13 +458,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -468,15 +475,19 @@
         <v>85</v>
       </c>
       <c r="C2" s="1">
-        <f>ROUND(B2,0)</f>
+        <f>IF($B$4 &lt; 78, IF(B2=100,100,IF(B2=0,0,IF(AND(B2&gt;=55,B2&lt;60),60,IF(B2&gt;=60,IF(B2+3&gt;99,99,B2+2),B2)))), B2)</f>
         <v>85</v>
       </c>
-      <c r="D2" s="1" t="str">
-        <f>IF(C2&gt;=90, "A+", IF(C2&gt;=86, "A", IF(C2&gt;=80, "A-", IF(C2&gt;=77, "B+", IF(C2&gt;=73, "B", IF(C2&gt;=70, "B-", IF(C2&gt;=67, "C+", IF(C2&gt;=63, "C", IF(C2&gt;=60, "C-", "F")))))))))</f>
+      <c r="D2" s="1">
+        <f>ROUND(C2,0)</f>
+        <v>85</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>IF(D2&gt;=90, "A+", IF(D2&gt;=86, "A", IF(D2&gt;=80, "A-", IF(D2&gt;=77, "B+", IF(D2&gt;=73, "B", IF(D2&gt;=70, "B-", IF(D2&gt;=67, "C+", IF(D2&gt;=63, "C", IF(D2&gt;=60, "C-", "F")))))))))</f>
         <v>A-</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -484,15 +495,19 @@
         <v>89</v>
       </c>
       <c r="C3" s="1">
-        <f>ROUND(B3,0)</f>
+        <f>IF($B$4 &lt; 78, IF(B3=100,100,IF(B3=0,0,IF(AND(B3&gt;=55,B3&lt;60),60,IF(B3&gt;=60,IF(B3+3&gt;99,99,B3+2),B3)))), B3)</f>
         <v>89</v>
       </c>
-      <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D4" si="0">IF(C3&gt;=90, "A+", IF(C3&gt;=86, "A", IF(C3&gt;=80, "A-", IF(C3&gt;=77, "B+", IF(C3&gt;=73, "B", IF(C3&gt;=70, "B-", IF(C3&gt;=67, "C+", IF(C3&gt;=63, "C", IF(C3&gt;=60, "C-", "F")))))))))</f>
+      <c r="D3" s="1">
+        <f>ROUND(C3,0)</f>
+        <v>89</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f t="shared" ref="E3:E4" si="0">IF(D3&gt;=90, "A+", IF(D3&gt;=86, "A", IF(D3&gt;=80, "A-", IF(D3&gt;=77, "B+", IF(D3&gt;=73, "B", IF(D3&gt;=70, "B-", IF(D3&gt;=67, "C+", IF(D3&gt;=63, "C", IF(D3&gt;=60, "C-", "F")))))))))</f>
         <v>A</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -504,7 +519,11 @@
         <f>ROUND(AVERAGE(C2:C3),2)</f>
         <v>87</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="1">
+        <f>ROUND(AVERAGE(D2:D3),2)</f>
+        <v>87</v>
+      </c>
+      <c r="E4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>

--- a/grade/grade.xlsx
+++ b/grade/grade.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10526"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/github/political_ideology/grade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E2C4E3-314B-F248-BA53-3B849A454D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D188A5E-F72F-A54B-9B6E-0BB5DDC5EBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="600" windowWidth="24700" windowHeight="15780" xr2:uid="{941A1975-B2FB-CF4E-89B2-5D3356893B07}"/>
+    <workbookView xWindow="1440" yWindow="600" windowWidth="24800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10002"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,49 +36,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Report</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Grade</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>423__01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>423__02</t>
+  </si>
+  <si>
+    <t>423__03</t>
+  </si>
+  <si>
+    <t>423__04</t>
+  </si>
+  <si>
+    <t>423__05</t>
+  </si>
+  <si>
+    <t>Grade_I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade_II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade_III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>423__01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Average</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>423__02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>423__03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>423__04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>423__06</t>
+  </si>
+  <si>
+    <t>423__07</t>
+  </si>
+  <si>
+    <t>423__08</t>
+  </si>
+  <si>
+    <t>423__09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>423__10</t>
+  </si>
+  <si>
+    <t>423__11</t>
+  </si>
+  <si>
+    <t>423__12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>423__14</t>
+  </si>
+  <si>
+    <t>423__14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>423__13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>423__15</t>
+  </si>
+  <si>
+    <t>423__16</t>
+  </si>
+  <si>
+    <t>423__17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>423__18</t>
+  </si>
+  <si>
+    <t>423__19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>423__20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>423__21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>423__22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>423__23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>423__24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>423__25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>423__29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,11 +204,11 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="2"/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="BiauKaiTC Regular"/>
+      <family val="4"/>
       <charset val="136"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,31 +228,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <strike val="0"/>
+        <u val="none"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -175,7 +292,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -187,7 +304,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -234,23 +351,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -286,23 +386,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,17 +537,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65BD18F-588F-494E-BBF3-3274E9DBAE61}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="8.83203125" style="1"/>
+    <col min="11" max="11" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.83203125" style="1"/>
+    <col min="14" max="14" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,100 +563,952 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1">
+        <f xml:space="preserve"> ROUND((B2 * 1), 2)</f>
+        <v>88</v>
+      </c>
+      <c r="D2" s="1">
+        <f>C2 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>112.3</v>
+      </c>
+      <c r="E2" s="1">
+        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D2 + (99.49 - MAX($D$2:$D$25)), D2)</f>
+        <v>112.3</v>
+      </c>
+      <c r="F2" s="1">
+        <f>IF(AND(OR(B2=100), E2&gt;99.49), 100, IF(AND(B2&lt;100, E2&gt;99.49), 99,  IF(OR(AND(E2&gt;=54.5, E2&lt;=59.49), E2&gt;=59.5), IF(E2&gt;=59.5, IF(E2+1&gt;99.49, 99, E2+1), 60), IF(OR(B2=0), 0, E2))))</f>
+        <v>99</v>
+      </c>
+      <c r="G2" s="1">
+        <f>ROUND(F2,0)</f>
+        <v>99</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>IF(G2&gt;=94, "A+", IF(G2&gt;=87, "A", IF(G2&gt;=80, "A-", IF(G2&gt;=77, "B+", IF(G2&gt;=73, "B", IF(G2&gt;=70, "B-", IF(G2&gt;=67, "C+", IF(G2&gt;=63, "C", IF(G2&gt;=60, "C-", "F")))))))))</f>
+        <v>A+</v>
+      </c>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="B3" s="1">
+        <v>87</v>
+      </c>
+      <c r="C3" s="1">
+        <f xml:space="preserve"> ROUND((B3 * 1), 2)</f>
+        <v>87</v>
+      </c>
+      <c r="D3" s="1">
+        <f>C3 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>111.3</v>
+      </c>
+      <c r="E3" s="1">
+        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D3 + (99.49 - MAX($D$2:$D$25)), D3)</f>
+        <v>111.3</v>
+      </c>
+      <c r="F3" s="1">
+        <f>IF(AND(OR(B3=100), E3&gt;99.49), 100, IF(AND(B3&lt;100, E3&gt;99.49), 99,  IF(OR(AND(E3&gt;=54.5, E3&lt;=59.49), E3&gt;=59.5), IF(E3&gt;=59.5, IF(E3+1&gt;99.49, 99, E3+1), 60), IF(OR(B3=0), 0, E3))))</f>
+        <v>99</v>
+      </c>
+      <c r="G3" s="1">
+        <f>ROUND(F3,0)</f>
+        <v>99</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f>IF(G3&gt;=94, "A+", IF(G3&gt;=87, "A", IF(G3&gt;=80, "A-", IF(G3&gt;=77, "B+", IF(G3&gt;=73, "B", IF(G3&gt;=70, "B-", IF(G3&gt;=67, "C+", IF(G3&gt;=63, "C", IF(G3&gt;=60, "C-", "F")))))))))</f>
+        <v>A+</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1">
+        <f xml:space="preserve"> ROUND((B4 * 1), 2)</f>
+        <v>86</v>
+      </c>
+      <c r="D4" s="1">
+        <f>C4 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>110.3</v>
+      </c>
+      <c r="E4" s="1">
+        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D4 + (99.49 - MAX($D$2:$D$25)), D4)</f>
+        <v>110.3</v>
+      </c>
+      <c r="F4" s="1">
+        <f>IF(AND(OR(B4=100), E4&gt;99.49), 100, IF(AND(B4&lt;100, E4&gt;99.49), 99,  IF(OR(AND(E4&gt;=54.5, E4&lt;=59.49), E4&gt;=59.5), IF(E4&gt;=59.5, IF(E4+1&gt;99.49, 99, E4+1), 60), IF(OR(B4=0), 0, E4))))</f>
+        <v>99</v>
+      </c>
+      <c r="G4" s="1">
+        <f>ROUND(F4,0)</f>
+        <v>99</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>IF(G4&gt;=94, "A+", IF(G4&gt;=87, "A", IF(G4&gt;=80, "A-", IF(G4&gt;=77, "B+", IF(G4&gt;=73, "B", IF(G4&gt;=70, "B-", IF(G4&gt;=67, "C+", IF(G4&gt;=63, "C", IF(G4&gt;=60, "C-", "F")))))))))</f>
+        <v>A+</v>
+      </c>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>72</v>
+      </c>
+      <c r="C5" s="1">
+        <f xml:space="preserve"> ROUND((B5 * 1), 2)</f>
+        <v>72</v>
+      </c>
+      <c r="D5" s="1">
+        <f>C5 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>96.3</v>
+      </c>
+      <c r="E5" s="1">
+        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D5 + (99.49 - MAX($D$2:$D$25)), D5)</f>
+        <v>96.3</v>
+      </c>
+      <c r="F5" s="1">
+        <f>IF(AND(OR(B5=100), E5&gt;99.49), 100, IF(AND(B5&lt;100, E5&gt;99.49), 99,  IF(OR(AND(E5&gt;=54.5, E5&lt;=59.49), E5&gt;=59.5), IF(E5&gt;=59.5, IF(E5+1&gt;99.49, 99, E5+1), 60), IF(OR(B5=0), 0, E5))))</f>
+        <v>97.3</v>
+      </c>
+      <c r="G5" s="1">
+        <f>ROUND(F5,0)</f>
+        <v>97</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>IF(G5&gt;=94, "A+", IF(G5&gt;=87, "A", IF(G5&gt;=80, "A-", IF(G5&gt;=77, "B+", IF(G5&gt;=73, "B", IF(G5&gt;=70, "B-", IF(G5&gt;=67, "C+", IF(G5&gt;=63, "C", IF(G5&gt;=60, "C-", "F")))))))))</f>
+        <v>A+</v>
+      </c>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1">
+        <f xml:space="preserve"> ROUND((B6 * 1), 2)</f>
+        <v>72</v>
+      </c>
+      <c r="D6" s="1">
+        <f>C6 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>96.3</v>
+      </c>
+      <c r="E6" s="1">
+        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D6 + (99.49 - MAX($D$2:$D$25)), D6)</f>
+        <v>96.3</v>
+      </c>
+      <c r="F6" s="1">
+        <f>IF(AND(OR(B6=100), E6&gt;99.49), 100, IF(AND(B6&lt;100, E6&gt;99.49), 99,  IF(OR(AND(E6&gt;=54.5, E6&lt;=59.49), E6&gt;=59.5), IF(E6&gt;=59.5, IF(E6+1&gt;99.49, 99, E6+1), 60), IF(OR(B6=0), 0, E6))))</f>
+        <v>97.3</v>
+      </c>
+      <c r="G6" s="1">
+        <f>ROUND(F6,0)</f>
+        <v>97</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f>IF(G6&gt;=94, "A+", IF(G6&gt;=87, "A", IF(G6&gt;=80, "A-", IF(G6&gt;=77, "B+", IF(G6&gt;=73, "B", IF(G6&gt;=70, "B-", IF(G6&gt;=67, "C+", IF(G6&gt;=63, "C", IF(G6&gt;=60, "C-", "F")))))))))</f>
+        <v>A+</v>
+      </c>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>69</v>
+      </c>
+      <c r="C7" s="1">
+        <f xml:space="preserve"> ROUND((B7 * 1), 2)</f>
+        <v>69</v>
+      </c>
+      <c r="D7" s="1">
+        <f>C7 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>93.3</v>
+      </c>
+      <c r="E7" s="1">
+        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D7 + (99.49 - MAX($D$2:$D$25)), D7)</f>
+        <v>93.3</v>
+      </c>
+      <c r="F7" s="1">
+        <f>IF(AND(OR(B7=100), E7&gt;99.49), 100, IF(AND(B7&lt;100, E7&gt;99.49), 99,  IF(OR(AND(E7&gt;=54.5, E7&lt;=59.49), E7&gt;=59.5), IF(E7&gt;=59.5, IF(E7+1&gt;99.49, 99, E7+1), 60), IF(OR(B7=0), 0, E7))))</f>
+        <v>94.3</v>
+      </c>
+      <c r="G7" s="1">
+        <f>ROUND(F7,0)</f>
+        <v>94</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f>IF(G7&gt;=94, "A+", IF(G7&gt;=87, "A", IF(G7&gt;=80, "A-", IF(G7&gt;=77, "B+", IF(G7&gt;=73, "B", IF(G7&gt;=70, "B-", IF(G7&gt;=67, "C+", IF(G7&gt;=63, "C", IF(G7&gt;=60, "C-", "F")))))))))</f>
+        <v>A+</v>
+      </c>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1">
+        <f xml:space="preserve"> ROUND((B8 * 1), 2)</f>
+        <v>60</v>
+      </c>
+      <c r="D8" s="1">
+        <f>C8 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>84.3</v>
+      </c>
+      <c r="E8" s="1">
+        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D8 + (99.49 - MAX($D$2:$D$25)), D8)</f>
+        <v>84.3</v>
+      </c>
+      <c r="F8" s="1">
+        <f>IF(AND(OR(B8=100), E8&gt;99.49), 100, IF(AND(B8&lt;100, E8&gt;99.49), 99,  IF(OR(AND(E8&gt;=54.5, E8&lt;=59.49), E8&gt;=59.5), IF(E8&gt;=59.5, IF(E8+1&gt;99.49, 99, E8+1), 60), IF(OR(B8=0), 0, E8))))</f>
+        <v>85.3</v>
+      </c>
+      <c r="G8" s="1">
+        <f>ROUND(F8,0)</f>
+        <v>85</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f>IF(G8&gt;=94, "A+", IF(G8&gt;=87, "A", IF(G8&gt;=80, "A-", IF(G8&gt;=77, "B+", IF(G8&gt;=73, "B", IF(G8&gt;=70, "B-", IF(G8&gt;=67, "C+", IF(G8&gt;=63, "C", IF(G8&gt;=60, "C-", "F")))))))))</f>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1">
+        <v>57</v>
+      </c>
+      <c r="C9" s="1">
+        <f xml:space="preserve"> ROUND((B9 * 1), 2)</f>
+        <v>57</v>
+      </c>
+      <c r="D9" s="1">
+        <f>C9 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>81.3</v>
+      </c>
+      <c r="E9" s="1">
+        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D9 + (99.49 - MAX($D$2:$D$25)), D9)</f>
+        <v>81.3</v>
+      </c>
+      <c r="F9" s="1">
+        <f>IF(AND(OR(B9=100), E9&gt;99.49), 100, IF(AND(B9&lt;100, E9&gt;99.49), 99,  IF(OR(AND(E9&gt;=54.5, E9&lt;=59.49), E9&gt;=59.5), IF(E9&gt;=59.5, IF(E9+1&gt;99.49, 99, E9+1), 60), IF(OR(B9=0), 0, E9))))</f>
+        <v>82.3</v>
+      </c>
+      <c r="G9" s="1">
+        <f>ROUND(F9,0)</f>
+        <v>82</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f>IF(G9&gt;=94, "A+", IF(G9&gt;=87, "A", IF(G9&gt;=80, "A-", IF(G9&gt;=77, "B+", IF(G9&gt;=73, "B", IF(G9&gt;=70, "B-", IF(G9&gt;=67, "C+", IF(G9&gt;=63, "C", IF(G9&gt;=60, "C-", "F")))))))))</f>
+        <v>A-</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1">
+        <f xml:space="preserve"> ROUND((B10 * 1), 2)</f>
+        <v>57</v>
+      </c>
+      <c r="D10" s="1">
+        <f>C10 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>81.3</v>
+      </c>
+      <c r="E10" s="1">
+        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D10 + (99.49 - MAX($D$2:$D$25)), D10)</f>
+        <v>81.3</v>
+      </c>
+      <c r="F10" s="1">
+        <f>IF(AND(OR(B10=100), E10&gt;99.49), 100, IF(AND(B10&lt;100, E10&gt;99.49), 99,  IF(OR(AND(E10&gt;=54.5, E10&lt;=59.49), E10&gt;=59.5), IF(E10&gt;=59.5, IF(E10+1&gt;99.49, 99, E10+1), 60), IF(OR(B10=0), 0, E10))))</f>
+        <v>82.3</v>
+      </c>
+      <c r="G10" s="1">
+        <f>ROUND(F10,0)</f>
+        <v>82</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f>IF(G10&gt;=94, "A+", IF(G10&gt;=87, "A", IF(G10&gt;=80, "A-", IF(G10&gt;=77, "B+", IF(G10&gt;=73, "B", IF(G10&gt;=70, "B-", IF(G10&gt;=67, "C+", IF(G10&gt;=63, "C", IF(G10&gt;=60, "C-", "F")))))))))</f>
+        <v>A-</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1">
+        <f xml:space="preserve"> ROUND((B11 * 1), 2)</f>
+        <v>56</v>
+      </c>
+      <c r="D11" s="1">
+        <f>C11 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>80.3</v>
+      </c>
+      <c r="E11" s="1">
+        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D11 + (99.49 - MAX($D$2:$D$25)), D11)</f>
+        <v>80.3</v>
+      </c>
+      <c r="F11" s="1">
+        <f>IF(AND(OR(B11=100), E11&gt;99.49), 100, IF(AND(B11&lt;100, E11&gt;99.49), 99,  IF(OR(AND(E11&gt;=54.5, E11&lt;=59.49), E11&gt;=59.5), IF(E11&gt;=59.5, IF(E11+1&gt;99.49, 99, E11+1), 60), IF(OR(B11=0), 0, E11))))</f>
+        <v>81.3</v>
+      </c>
+      <c r="G11" s="1">
+        <f>ROUND(F11,0)</f>
+        <v>81</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f>IF(G11&gt;=94, "A+", IF(G11&gt;=87, "A", IF(G11&gt;=80, "A-", IF(G11&gt;=77, "B+", IF(G11&gt;=73, "B", IF(G11&gt;=70, "B-", IF(G11&gt;=67, "C+", IF(G11&gt;=63, "C", IF(G11&gt;=60, "C-", "F")))))))))</f>
+        <v>A-</v>
+      </c>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1">
+        <f xml:space="preserve"> ROUND((B12 * 1), 2)</f>
+        <v>56</v>
+      </c>
+      <c r="D12" s="1">
+        <f>C12 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>80.3</v>
+      </c>
+      <c r="E12" s="1">
+        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D12 + (99.49 - MAX($D$2:$D$25)), D12)</f>
+        <v>80.3</v>
+      </c>
+      <c r="F12" s="1">
+        <f>IF(AND(OR(B12=100), E12&gt;99.49), 100, IF(AND(B12&lt;100, E12&gt;99.49), 99,  IF(OR(AND(E12&gt;=54.5, E12&lt;=59.49), E12&gt;=59.5), IF(E12&gt;=59.5, IF(E12+1&gt;99.49, 99, E12+1), 60), IF(OR(B12=0), 0, E12))))</f>
+        <v>81.3</v>
+      </c>
+      <c r="G12" s="1">
+        <f>ROUND(F12,0)</f>
+        <v>81</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f>IF(G12&gt;=94, "A+", IF(G12&gt;=87, "A", IF(G12&gt;=80, "A-", IF(G12&gt;=77, "B+", IF(G12&gt;=73, "B", IF(G12&gt;=70, "B-", IF(G12&gt;=67, "C+", IF(G12&gt;=63, "C", IF(G12&gt;=60, "C-", "F")))))))))</f>
+        <v>A-</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
-        <v>85</v>
-      </c>
-      <c r="C2" s="1">
-        <f>ROUND(B2,0)</f>
-        <v>85</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f>IF(C2&gt;=90, "A+", IF(C2&gt;=86, "A", IF(C2&gt;=80, "A-", IF(C2&gt;=77, "B+", IF(C2&gt;=73, "B", IF(C2&gt;=70, "B-", IF(C2&gt;=67, "C+", IF(C2&gt;=63, "C", IF(C2&gt;=60, "C-", "F")))))))))</f>
-        <v>A-</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>89</v>
-      </c>
-      <c r="C3" s="1">
-        <f>ROUND(B3,0)</f>
-        <v>89</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f>IF(C3&gt;=90, "A+", IF(C3&gt;=86, "A", IF(C3&gt;=80, "A-", IF(C3&gt;=77, "B+", IF(C3&gt;=73, "B", IF(C3&gt;=70, "B-", IF(C3&gt;=67, "C+", IF(C3&gt;=63, "C", IF(C3&gt;=60, "C-", "F")))))))))</f>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <f>ROUND(B4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f>IF(C4&gt;=90, "A+", IF(C4&gt;=86, "A", IF(C4&gt;=80, "A-", IF(C4&gt;=77, "B+", IF(C4&gt;=73, "B", IF(C4&gt;=70, "B-", IF(C4&gt;=67, "C+", IF(C4&gt;=63, "C", IF(C4&gt;=60, "C-", "F")))))))))</f>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="B13" s="1">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1">
+        <f xml:space="preserve"> ROUND((B13 * 1), 2)</f>
+        <v>53</v>
+      </c>
+      <c r="D13" s="1">
+        <f>C13 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>77.3</v>
+      </c>
+      <c r="E13" s="1">
+        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D13 + (99.49 - MAX($D$2:$D$25)), D13)</f>
+        <v>77.3</v>
+      </c>
+      <c r="F13" s="1">
+        <f>IF(AND(OR(B13=100), E13&gt;99.49), 100, IF(AND(B13&lt;100, E13&gt;99.49), 99,  IF(OR(AND(E13&gt;=54.5, E13&lt;=59.49), E13&gt;=59.5), IF(E13&gt;=59.5, IF(E13+1&gt;99.49, 99, E13+1), 60), IF(OR(B13=0), 0, E13))))</f>
+        <v>78.3</v>
+      </c>
+      <c r="G13" s="1">
+        <f>ROUND(F13,0)</f>
+        <v>78</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f>IF(G13&gt;=94, "A+", IF(G13&gt;=87, "A", IF(G13&gt;=80, "A-", IF(G13&gt;=77, "B+", IF(G13&gt;=73, "B", IF(G13&gt;=70, "B-", IF(G13&gt;=67, "C+", IF(G13&gt;=63, "C", IF(G13&gt;=60, "C-", "F")))))))))</f>
+        <v>B+</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1">
+        <f xml:space="preserve"> ROUND((B14 * 1), 2)</f>
+        <v>53</v>
+      </c>
+      <c r="D14" s="1">
+        <f>C14 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>77.3</v>
+      </c>
+      <c r="E14" s="1">
+        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D14 + (99.49 - MAX($D$2:$D$25)), D14)</f>
+        <v>77.3</v>
+      </c>
+      <c r="F14" s="1">
+        <f>IF(AND(OR(B14=100), E14&gt;99.49), 100, IF(AND(B14&lt;100, E14&gt;99.49), 99,  IF(OR(AND(E14&gt;=54.5, E14&lt;=59.49), E14&gt;=59.5), IF(E14&gt;=59.5, IF(E14+1&gt;99.49, 99, E14+1), 60), IF(OR(B14=0), 0, E14))))</f>
+        <v>78.3</v>
+      </c>
+      <c r="G14" s="1">
+        <f>ROUND(F14,0)</f>
+        <v>78</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f>IF(G14&gt;=94, "A+", IF(G14&gt;=87, "A", IF(G14&gt;=80, "A-", IF(G14&gt;=77, "B+", IF(G14&gt;=73, "B", IF(G14&gt;=70, "B-", IF(G14&gt;=67, "C+", IF(G14&gt;=63, "C", IF(G14&gt;=60, "C-", "F")))))))))</f>
+        <v>B+</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1">
+        <v>52</v>
+      </c>
+      <c r="C15" s="1">
+        <f xml:space="preserve"> ROUND((B15 * 1), 2)</f>
+        <v>52</v>
+      </c>
+      <c r="D15" s="1">
+        <f>C15 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>76.3</v>
+      </c>
+      <c r="E15" s="1">
+        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D15 + (99.49 - MAX($D$2:$D$25)), D15)</f>
+        <v>76.3</v>
+      </c>
+      <c r="F15" s="1">
+        <f>IF(AND(OR(B15=100), E15&gt;99.49), 100, IF(AND(B15&lt;100, E15&gt;99.49), 99,  IF(OR(AND(E15&gt;=54.5, E15&lt;=59.49), E15&gt;=59.5), IF(E15&gt;=59.5, IF(E15+1&gt;99.49, 99, E15+1), 60), IF(OR(B15=0), 0, E15))))</f>
+        <v>77.3</v>
+      </c>
+      <c r="G15" s="1">
+        <f>ROUND(F15,0)</f>
+        <v>77</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f>IF(G15&gt;=94, "A+", IF(G15&gt;=87, "A", IF(G15&gt;=80, "A-", IF(G15&gt;=77, "B+", IF(G15&gt;=73, "B", IF(G15&gt;=70, "B-", IF(G15&gt;=67, "C+", IF(G15&gt;=63, "C", IF(G15&gt;=60, "C-", "F")))))))))</f>
+        <v>B+</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1">
+        <f xml:space="preserve"> ROUND((B16 * 1), 2)</f>
+        <v>50</v>
+      </c>
+      <c r="D16" s="1">
+        <f>C16 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>74.3</v>
+      </c>
+      <c r="E16" s="1">
+        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D16 + (99.49 - MAX($D$2:$D$25)), D16)</f>
+        <v>74.3</v>
+      </c>
+      <c r="F16" s="1">
+        <f>IF(AND(OR(B16=100), E16&gt;99.49), 100, IF(AND(B16&lt;100, E16&gt;99.49), 99,  IF(OR(AND(E16&gt;=54.5, E16&lt;=59.49), E16&gt;=59.5), IF(E16&gt;=59.5, IF(E16+1&gt;99.49, 99, E16+1), 60), IF(OR(B16=0), 0, E16))))</f>
+        <v>75.3</v>
+      </c>
+      <c r="G16" s="1">
+        <f>ROUND(F16,0)</f>
+        <v>75</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f>IF(G16&gt;=94, "A+", IF(G16&gt;=87, "A", IF(G16&gt;=80, "A-", IF(G16&gt;=77, "B+", IF(G16&gt;=73, "B", IF(G16&gt;=70, "B-", IF(G16&gt;=67, "C+", IF(G16&gt;=63, "C", IF(G16&gt;=60, "C-", "F")))))))))</f>
+        <v>B</v>
+      </c>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1">
+        <f xml:space="preserve"> ROUND((B17 * 1), 2)</f>
+        <v>48</v>
+      </c>
+      <c r="D17" s="1">
+        <f>C17 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>72.3</v>
+      </c>
+      <c r="E17" s="1">
+        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D17 + (99.49 - MAX($D$2:$D$25)), D17)</f>
+        <v>72.3</v>
+      </c>
+      <c r="F17" s="1">
+        <f>IF(AND(OR(B17=100), E17&gt;99.49), 100, IF(AND(B17&lt;100, E17&gt;99.49), 99,  IF(OR(AND(E17&gt;=54.5, E17&lt;=59.49), E17&gt;=59.5), IF(E17&gt;=59.5, IF(E17+1&gt;99.49, 99, E17+1), 60), IF(OR(B17=0), 0, E17))))</f>
+        <v>73.3</v>
+      </c>
+      <c r="G17" s="1">
+        <f>ROUND(F17,0)</f>
+        <v>73</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f>IF(G17&gt;=94, "A+", IF(G17&gt;=87, "A", IF(G17&gt;=80, "A-", IF(G17&gt;=77, "B+", IF(G17&gt;=73, "B", IF(G17&gt;=70, "B-", IF(G17&gt;=67, "C+", IF(G17&gt;=63, "C", IF(G17&gt;=60, "C-", "F")))))))))</f>
+        <v>B</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1">
+        <f xml:space="preserve"> ROUND((B18 * 1), 2)</f>
+        <v>47</v>
+      </c>
+      <c r="D18" s="1">
+        <f>C18 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>71.3</v>
+      </c>
+      <c r="E18" s="1">
+        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D18 + (99.49 - MAX($D$2:$D$25)), D18)</f>
+        <v>71.3</v>
+      </c>
+      <c r="F18" s="1">
+        <f>IF(AND(OR(B18=100), E18&gt;99.49), 100, IF(AND(B18&lt;100, E18&gt;99.49), 99,  IF(OR(AND(E18&gt;=54.5, E18&lt;=59.49), E18&gt;=59.5), IF(E18&gt;=59.5, IF(E18+1&gt;99.49, 99, E18+1), 60), IF(OR(B18=0), 0, E18))))</f>
+        <v>72.3</v>
+      </c>
+      <c r="G18" s="1">
+        <f>ROUND(F18,0)</f>
+        <v>72</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f>IF(G18&gt;=94, "A+", IF(G18&gt;=87, "A", IF(G18&gt;=80, "A-", IF(G18&gt;=77, "B+", IF(G18&gt;=73, "B", IF(G18&gt;=70, "B-", IF(G18&gt;=67, "C+", IF(G18&gt;=63, "C", IF(G18&gt;=60, "C-", "F")))))))))</f>
+        <v>B-</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1">
+        <f xml:space="preserve"> ROUND((B19 * 1), 2)</f>
+        <v>46</v>
+      </c>
+      <c r="D19" s="1">
+        <f>C19 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>70.3</v>
+      </c>
+      <c r="E19" s="1">
+        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D19 + (99.49 - MAX($D$2:$D$25)), D19)</f>
+        <v>70.3</v>
+      </c>
+      <c r="F19" s="1">
+        <f>IF(AND(OR(B19=100), E19&gt;99.49), 100, IF(AND(B19&lt;100, E19&gt;99.49), 99,  IF(OR(AND(E19&gt;=54.5, E19&lt;=59.49), E19&gt;=59.5), IF(E19&gt;=59.5, IF(E19+1&gt;99.49, 99, E19+1), 60), IF(OR(B19=0), 0, E19))))</f>
+        <v>71.3</v>
+      </c>
+      <c r="G19" s="1">
+        <f>ROUND(F19,0)</f>
+        <v>71</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f>IF(G19&gt;=94, "A+", IF(G19&gt;=87, "A", IF(G19&gt;=80, "A-", IF(G19&gt;=77, "B+", IF(G19&gt;=73, "B", IF(G19&gt;=70, "B-", IF(G19&gt;=67, "C+", IF(G19&gt;=63, "C", IF(G19&gt;=60, "C-", "F")))))))))</f>
+        <v>B-</v>
+      </c>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1">
+        <f xml:space="preserve"> ROUND((B20 * 1), 2)</f>
+        <v>45</v>
+      </c>
+      <c r="D20" s="1">
+        <f>C20 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>69.3</v>
+      </c>
+      <c r="E20" s="1">
+        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D20 + (99.49 - MAX($D$2:$D$25)), D20)</f>
+        <v>69.3</v>
+      </c>
+      <c r="F20" s="1">
+        <f>IF(AND(OR(B20=100), E20&gt;99.49), 100, IF(AND(B20&lt;100, E20&gt;99.49), 99,  IF(OR(AND(E20&gt;=54.5, E20&lt;=59.49), E20&gt;=59.5), IF(E20&gt;=59.5, IF(E20+1&gt;99.49, 99, E20+1), 60), IF(OR(B20=0), 0, E20))))</f>
+        <v>70.3</v>
+      </c>
+      <c r="G20" s="1">
+        <f>ROUND(F20,0)</f>
+        <v>70</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f>IF(G20&gt;=94, "A+", IF(G20&gt;=87, "A", IF(G20&gt;=80, "A-", IF(G20&gt;=77, "B+", IF(G20&gt;=73, "B", IF(G20&gt;=70, "B-", IF(G20&gt;=67, "C+", IF(G20&gt;=63, "C", IF(G20&gt;=60, "C-", "F")))))))))</f>
+        <v>B-</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1">
+        <f xml:space="preserve"> ROUND((B21 * 1), 2)</f>
+        <v>45</v>
+      </c>
+      <c r="D21" s="1">
+        <f>C21 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>69.3</v>
+      </c>
+      <c r="E21" s="1">
+        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D21 + (99.49 - MAX($D$2:$D$25)), D21)</f>
+        <v>69.3</v>
+      </c>
+      <c r="F21" s="1">
+        <f>IF(AND(OR(B21=100), E21&gt;99.49), 100, IF(AND(B21&lt;100, E21&gt;99.49), 99,  IF(OR(AND(E21&gt;=54.5, E21&lt;=59.49), E21&gt;=59.5), IF(E21&gt;=59.5, IF(E21+1&gt;99.49, 99, E21+1), 60), IF(OR(B21=0), 0, E21))))</f>
+        <v>70.3</v>
+      </c>
+      <c r="G21" s="1">
+        <f>ROUND(F21,0)</f>
+        <v>70</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f>IF(G21&gt;=94, "A+", IF(G21&gt;=87, "A", IF(G21&gt;=80, "A-", IF(G21&gt;=77, "B+", IF(G21&gt;=73, "B", IF(G21&gt;=70, "B-", IF(G21&gt;=67, "C+", IF(G21&gt;=63, "C", IF(G21&gt;=60, "C-", "F")))))))))</f>
+        <v>B-</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1">
+        <f xml:space="preserve"> ROUND((B22 * 1), 2)</f>
+        <v>40</v>
+      </c>
+      <c r="D22" s="1">
+        <f>C22 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>64.3</v>
+      </c>
+      <c r="E22" s="1">
+        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D22 + (99.49 - MAX($D$2:$D$25)), D22)</f>
+        <v>64.3</v>
+      </c>
+      <c r="F22" s="1">
+        <f>IF(AND(OR(B22=100), E22&gt;99.49), 100, IF(AND(B22&lt;100, E22&gt;99.49), 99,  IF(OR(AND(E22&gt;=54.5, E22&lt;=59.49), E22&gt;=59.5), IF(E22&gt;=59.5, IF(E22+1&gt;99.49, 99, E22+1), 60), IF(OR(B22=0), 0, E22))))</f>
+        <v>65.3</v>
+      </c>
+      <c r="G22" s="1">
+        <f>ROUND(F22,0)</f>
+        <v>65</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f>IF(G22&gt;=94, "A+", IF(G22&gt;=87, "A", IF(G22&gt;=80, "A-", IF(G22&gt;=77, "B+", IF(G22&gt;=73, "B", IF(G22&gt;=70, "B-", IF(G22&gt;=67, "C+", IF(G22&gt;=63, "C", IF(G22&gt;=60, "C-", "F")))))))))</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1">
+        <v>37</v>
+      </c>
+      <c r="C23" s="1">
+        <f xml:space="preserve"> ROUND((B23 * 1), 2)</f>
+        <v>37</v>
+      </c>
+      <c r="D23" s="1">
+        <f>C23 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>61.3</v>
+      </c>
+      <c r="E23" s="1">
+        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D23 + (99.49 - MAX($D$2:$D$25)), D23)</f>
+        <v>61.3</v>
+      </c>
+      <c r="F23" s="1">
+        <f>IF(AND(OR(B23=100), E23&gt;99.49), 100, IF(AND(B23&lt;100, E23&gt;99.49), 99,  IF(OR(AND(E23&gt;=54.5, E23&lt;=59.49), E23&gt;=59.5), IF(E23&gt;=59.5, IF(E23+1&gt;99.49, 99, E23+1), 60), IF(OR(B23=0), 0, E23))))</f>
+        <v>62.3</v>
+      </c>
+      <c r="G23" s="1">
+        <f>ROUND(F23,0)</f>
+        <v>62</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f>IF(G23&gt;=94, "A+", IF(G23&gt;=87, "A", IF(G23&gt;=80, "A-", IF(G23&gt;=77, "B+", IF(G23&gt;=73, "B", IF(G23&gt;=70, "B-", IF(G23&gt;=67, "C+", IF(G23&gt;=63, "C", IF(G23&gt;=60, "C-", "F")))))))))</f>
+        <v>C-</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1">
+        <v>36</v>
+      </c>
+      <c r="C24" s="1">
+        <f xml:space="preserve"> ROUND((B24 * 1), 2)</f>
+        <v>36</v>
+      </c>
+      <c r="D24" s="1">
+        <f>C24 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>60.3</v>
+      </c>
+      <c r="E24" s="1">
+        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D24 + (99.49 - MAX($D$2:$D$25)), D24)</f>
+        <v>60.3</v>
+      </c>
+      <c r="F24" s="1">
+        <f>IF(AND(OR(B24=100), E24&gt;99.49), 100, IF(AND(B24&lt;100, E24&gt;99.49), 99,  IF(OR(AND(E24&gt;=54.5, E24&lt;=59.49), E24&gt;=59.5), IF(E24&gt;=59.5, IF(E24+1&gt;99.49, 99, E24+1), 60), IF(OR(B24=0), 0, E24))))</f>
+        <v>61.3</v>
+      </c>
+      <c r="G24" s="1">
+        <f>ROUND(F24,0)</f>
+        <v>61</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f>IF(G24&gt;=94, "A+", IF(G24&gt;=87, "A", IF(G24&gt;=80, "A-", IF(G24&gt;=77, "B+", IF(G24&gt;=73, "B", IF(G24&gt;=70, "B-", IF(G24&gt;=67, "C+", IF(G24&gt;=63, "C", IF(G24&gt;=60, "C-", "F")))))))))</f>
+        <v>C-</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1">
+        <f xml:space="preserve"> ROUND((B25 * 1), 2)</f>
+        <v>35</v>
+      </c>
+      <c r="D25" s="1">
+        <f>C25 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>59.3</v>
+      </c>
+      <c r="E25" s="1">
+        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D25 + (99.49 - MAX($D$2:$D$25)), D25)</f>
+        <v>59.3</v>
+      </c>
+      <c r="F25" s="1">
+        <f>IF(AND(OR(B25=100), E25&gt;99.49), 100, IF(AND(B25&lt;100, E25&gt;99.49), 99,  IF(OR(AND(E25&gt;=54.5, E25&lt;=59.49), E25&gt;=59.5), IF(E25&gt;=59.5, IF(E25+1&gt;99.49, 99, E25+1), 60), IF(OR(B25=0), 0, E25))))</f>
         <v>60</v>
       </c>
-      <c r="C5" s="1">
-        <f>ROUND(B5,0)</f>
+      <c r="G25" s="1">
+        <f>ROUND(F25,0)</f>
         <v>60</v>
       </c>
-      <c r="D5" s="1" t="str">
-        <f>IF(C5&gt;=90, "A+", IF(C5&gt;=86, "A", IF(C5&gt;=80, "A-", IF(C5&gt;=77, "B+", IF(C5&gt;=73, "B", IF(C5&gt;=70, "B-", IF(C5&gt;=67, "C+", IF(C5&gt;=63, "C", IF(C5&gt;=60, "C-", "F")))))))))</f>
+      <c r="H25" s="1" t="str">
+        <f>IF(G25&gt;=94, "A+", IF(G25&gt;=87, "A", IF(G25&gt;=80, "A-", IF(G25&gt;=77, "B+", IF(G25&gt;=73, "B", IF(G25&gt;=70, "B-", IF(G25&gt;=67, "C+", IF(G25&gt;=63, "C", IF(G25&gt;=60, "C-", "F")))))))))</f>
         <v>C-</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <f>ROUND(AVERAGE(B2:B5),2)</f>
-        <v>58.5</v>
-      </c>
-      <c r="C6" s="1">
-        <f>ROUND(AVERAGE(C2:C5),2)</f>
-        <v>58.5</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f>IF(C6&gt;=90, "A+", IF(C6&gt;=86, "A", IF(C6&gt;=80, "A-", IF(C6&gt;=77, "B+", IF(C6&gt;=73, "B", IF(C6&gt;=70, "B-", IF(C6&gt;=67, "C+", IF(C6&gt;=63, "C", IF(C6&gt;=60, "C-", "F")))))))))</f>
-        <v>F</v>
+    <row r="26" spans="1:15">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1">
+        <f xml:space="preserve"> ROUND((B26 * 1), 2)</f>
+        <v>35</v>
+      </c>
+      <c r="D26" s="1">
+        <f>C26 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>59.3</v>
+      </c>
+      <c r="E26" s="1">
+        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D26 + (99.49 - MAX($D$2:$D$25)), D26)</f>
+        <v>59.3</v>
+      </c>
+      <c r="F26" s="1">
+        <f>IF(AND(OR(B26=100), E26&gt;99.49), 100, IF(AND(B26&lt;100, E26&gt;99.49), 99,  IF(OR(AND(E26&gt;=54.5, E26&lt;=59.49), E26&gt;=59.5), IF(E26&gt;=59.5, IF(E26+1&gt;99.49, 99, E26+1), 60), IF(OR(B26=0), 0, E26))))</f>
+        <v>60</v>
+      </c>
+      <c r="G26" s="1">
+        <f>ROUND(F26,0)</f>
+        <v>60</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f>IF(G26&gt;=94, "A+", IF(G26&gt;=87, "A", IF(G26&gt;=80, "A-", IF(G26&gt;=77, "B+", IF(G26&gt;=73, "B", IF(G26&gt;=70, "B-", IF(G26&gt;=67, "C+", IF(G26&gt;=63, "C", IF(G26&gt;=60, "C-", "F")))))))))</f>
+        <v>C-</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1">
+        <v>34</v>
+      </c>
+      <c r="C27" s="1">
+        <f xml:space="preserve"> ROUND((B27 * 1), 2)</f>
+        <v>34</v>
+      </c>
+      <c r="D27" s="1">
+        <f>C27 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>58.3</v>
+      </c>
+      <c r="E27" s="1">
+        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D27 + (99.49 - MAX($D$2:$D$25)), D27)</f>
+        <v>58.3</v>
+      </c>
+      <c r="F27" s="1">
+        <f>IF(AND(OR(B27=100), E27&gt;99.49), 100, IF(AND(B27&lt;100, E27&gt;99.49), 99,  IF(OR(AND(E27&gt;=54.5, E27&lt;=59.49), E27&gt;=59.5), IF(E27&gt;=59.5, IF(E27+1&gt;99.49, 99, E27+1), 60), IF(OR(B27=0), 0, E27))))</f>
+        <v>60</v>
+      </c>
+      <c r="G27" s="1">
+        <f>ROUND(F27,0)</f>
+        <v>60</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f>IF(G27&gt;=94, "A+", IF(G27&gt;=87, "A", IF(G27&gt;=80, "A-", IF(G27&gt;=77, "B+", IF(G27&gt;=73, "B", IF(G27&gt;=70, "B-", IF(G27&gt;=67, "C+", IF(G27&gt;=63, "C", IF(G27&gt;=60, "C-", "F")))))))))</f>
+        <v>C-</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="1">
+        <v>34</v>
+      </c>
+      <c r="C28" s="1">
+        <f xml:space="preserve"> ROUND((B28 * 1), 2)</f>
+        <v>34</v>
+      </c>
+      <c r="D28" s="1">
+        <f>C28 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>58.3</v>
+      </c>
+      <c r="E28" s="1">
+        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D28 + (99.49 - MAX($D$2:$D$25)), D28)</f>
+        <v>58.3</v>
+      </c>
+      <c r="F28" s="1">
+        <f>IF(AND(OR(B28=100), E28&gt;99.49), 100, IF(AND(B28&lt;100, E28&gt;99.49), 99,  IF(OR(AND(E28&gt;=54.5, E28&lt;=59.49), E28&gt;=59.5), IF(E28&gt;=59.5, IF(E28+1&gt;99.49, 99, E28+1), 60), IF(OR(B28=0), 0, E28))))</f>
+        <v>60</v>
+      </c>
+      <c r="G28" s="1">
+        <f>ROUND(F28,0)</f>
+        <v>60</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f>IF(G28&gt;=94, "A+", IF(G28&gt;=87, "A", IF(G28&gt;=80, "A-", IF(G28&gt;=77, "B+", IF(G28&gt;=73, "B", IF(G28&gt;=70, "B-", IF(G28&gt;=67, "C+", IF(G28&gt;=63, "C", IF(G28&gt;=60, "C-", "F")))))))))</f>
+        <v>C-</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" ref="B29:G29" si="0">ROUND(AVERAGE(B2:B28),2)</f>
+        <v>53.7</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>53.7</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>77.56</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="0"/>
+        <v>77.33</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f>IF(G29&gt;=90, "A+", IF(G29&gt;=86, "A", IF(G29&gt;=80, "A-", IF(G29&gt;=77, "B+", IF(G29&gt;=73, "B", IF(G29&gt;=70, "B-", IF(G29&gt;=67, "C+", IF(G29&gt;=63, "C", IF(G29&gt;=60, "C-", "F")))))))))</f>
+        <v>B+</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C2:D5">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
-      <formula>OR($C2&lt;60, TRIM($D2)="F")</formula>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H28">
+    <sortCondition descending="1" ref="D2:D28"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G2:H28">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>OR($G2&lt;60, TRIM($H2)="F")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/grade/grade.xlsx
+++ b/grade/grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/github/political_ideology/grade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D188A5E-F72F-A54B-9B6E-0BB5DDC5EBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E998DCCF-493C-2846-8646-F694D8EA1F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="600" windowWidth="24800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -541,7 +541,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -591,27 +591,27 @@
         <v>88</v>
       </c>
       <c r="C2" s="1">
-        <f xml:space="preserve"> ROUND((B2 * 1), 2)</f>
+        <f t="shared" ref="C2:C28" si="0" xml:space="preserve"> ROUND((B2 * 1), 2)</f>
         <v>88</v>
       </c>
       <c r="D2" s="1">
-        <f>C2 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <f t="shared" ref="D2:D28" si="1">C2 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
         <v>112.3</v>
       </c>
       <c r="E2" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D2 + (99.49 - MAX($D$2:$D$25)), D2)</f>
+        <f t="shared" ref="E2:E28" si="2">IF(MAX($D$2:$D$25) &lt; 99.49, D2 + (99.49 - MAX($D$2:$D$25)), D2)</f>
         <v>112.3</v>
       </c>
       <c r="F2" s="1">
-        <f>IF(AND(OR(B2=100), E2&gt;99.49), 100, IF(AND(B2&lt;100, E2&gt;99.49), 99,  IF(OR(AND(E2&gt;=54.5, E2&lt;=59.49), E2&gt;=59.5), IF(E2&gt;=59.5, IF(E2+1&gt;99.49, 99, E2+1), 60), IF(OR(B2=0), 0, E2))))</f>
+        <f>IF(AND(OR(B2=100), E2&gt;99.49), 100, IF(AND(B2&lt;100, E2&gt;99.49), 99,  IF(OR(AND(E2&gt;=57.5, E2&lt;=59.49), E2&gt;=59.5), IF(E2&gt;=59.5, IF(E2+1&gt;99.49, 99, E2+1), 60), IF(OR(B2=0), 0, E2))))</f>
         <v>99</v>
       </c>
       <c r="G2" s="1">
-        <f>ROUND(F2,0)</f>
+        <f t="shared" ref="G2:G28" si="3">ROUND(F2,0)</f>
         <v>99</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f>IF(G2&gt;=94, "A+", IF(G2&gt;=87, "A", IF(G2&gt;=80, "A-", IF(G2&gt;=77, "B+", IF(G2&gt;=73, "B", IF(G2&gt;=70, "B-", IF(G2&gt;=67, "C+", IF(G2&gt;=63, "C", IF(G2&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" ref="H2:H28" si="4">IF(G2&gt;=94, "A+", IF(G2&gt;=87, "A", IF(G2&gt;=80, "A-", IF(G2&gt;=77, "B+", IF(G2&gt;=73, "B", IF(G2&gt;=70, "B-", IF(G2&gt;=67, "C+", IF(G2&gt;=63, "C", IF(G2&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="O2" s="3"/>
@@ -624,27 +624,27 @@
         <v>87</v>
       </c>
       <c r="C3" s="1">
-        <f xml:space="preserve"> ROUND((B3 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="D3" s="1">
-        <f>C3 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <f t="shared" si="1"/>
         <v>111.3</v>
       </c>
       <c r="E3" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D3 + (99.49 - MAX($D$2:$D$25)), D3)</f>
+        <f t="shared" si="2"/>
         <v>111.3</v>
       </c>
       <c r="F3" s="1">
-        <f>IF(AND(OR(B3=100), E3&gt;99.49), 100, IF(AND(B3&lt;100, E3&gt;99.49), 99,  IF(OR(AND(E3&gt;=54.5, E3&lt;=59.49), E3&gt;=59.5), IF(E3&gt;=59.5, IF(E3+1&gt;99.49, 99, E3+1), 60), IF(OR(B3=0), 0, E3))))</f>
+        <f t="shared" ref="F3:F28" si="5">IF(AND(OR(B3=100), E3&gt;99.49), 100, IF(AND(B3&lt;100, E3&gt;99.49), 99,  IF(OR(AND(E3&gt;=57.5, E3&lt;=59.49), E3&gt;=59.5), IF(E3&gt;=59.5, IF(E3+1&gt;99.49, 99, E3+1), 60), IF(OR(B3=0), 0, E3))))</f>
         <v>99</v>
       </c>
       <c r="G3" s="1">
-        <f>ROUND(F3,0)</f>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f>IF(G3&gt;=94, "A+", IF(G3&gt;=87, "A", IF(G3&gt;=80, "A-", IF(G3&gt;=77, "B+", IF(G3&gt;=73, "B", IF(G3&gt;=70, "B-", IF(G3&gt;=67, "C+", IF(G3&gt;=63, "C", IF(G3&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="4"/>
         <v>A+</v>
       </c>
       <c r="O3" s="3"/>
@@ -657,27 +657,27 @@
         <v>86</v>
       </c>
       <c r="C4" s="1">
-        <f xml:space="preserve"> ROUND((B4 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="D4" s="1">
-        <f>C4 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <f t="shared" si="1"/>
         <v>110.3</v>
       </c>
       <c r="E4" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D4 + (99.49 - MAX($D$2:$D$25)), D4)</f>
+        <f t="shared" si="2"/>
         <v>110.3</v>
       </c>
       <c r="F4" s="1">
-        <f>IF(AND(OR(B4=100), E4&gt;99.49), 100, IF(AND(B4&lt;100, E4&gt;99.49), 99,  IF(OR(AND(E4&gt;=54.5, E4&lt;=59.49), E4&gt;=59.5), IF(E4&gt;=59.5, IF(E4+1&gt;99.49, 99, E4+1), 60), IF(OR(B4=0), 0, E4))))</f>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="G4" s="1">
-        <f>ROUND(F4,0)</f>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f>IF(G4&gt;=94, "A+", IF(G4&gt;=87, "A", IF(G4&gt;=80, "A-", IF(G4&gt;=77, "B+", IF(G4&gt;=73, "B", IF(G4&gt;=70, "B-", IF(G4&gt;=67, "C+", IF(G4&gt;=63, "C", IF(G4&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="4"/>
         <v>A+</v>
       </c>
       <c r="O4" s="3"/>
@@ -690,27 +690,27 @@
         <v>72</v>
       </c>
       <c r="C5" s="1">
-        <f xml:space="preserve"> ROUND((B5 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <f>C5 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <f t="shared" si="1"/>
         <v>96.3</v>
       </c>
       <c r="E5" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D5 + (99.49 - MAX($D$2:$D$25)), D5)</f>
+        <f t="shared" si="2"/>
         <v>96.3</v>
       </c>
       <c r="F5" s="1">
-        <f>IF(AND(OR(B5=100), E5&gt;99.49), 100, IF(AND(B5&lt;100, E5&gt;99.49), 99,  IF(OR(AND(E5&gt;=54.5, E5&lt;=59.49), E5&gt;=59.5), IF(E5&gt;=59.5, IF(E5+1&gt;99.49, 99, E5+1), 60), IF(OR(B5=0), 0, E5))))</f>
+        <f t="shared" si="5"/>
         <v>97.3</v>
       </c>
       <c r="G5" s="1">
-        <f>ROUND(F5,0)</f>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f>IF(G5&gt;=94, "A+", IF(G5&gt;=87, "A", IF(G5&gt;=80, "A-", IF(G5&gt;=77, "B+", IF(G5&gt;=73, "B", IF(G5&gt;=70, "B-", IF(G5&gt;=67, "C+", IF(G5&gt;=63, "C", IF(G5&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="4"/>
         <v>A+</v>
       </c>
       <c r="O5" s="3"/>
@@ -723,27 +723,27 @@
         <v>72</v>
       </c>
       <c r="C6" s="1">
-        <f xml:space="preserve"> ROUND((B6 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <f>C6 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <f t="shared" si="1"/>
         <v>96.3</v>
       </c>
       <c r="E6" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D6 + (99.49 - MAX($D$2:$D$25)), D6)</f>
+        <f t="shared" si="2"/>
         <v>96.3</v>
       </c>
       <c r="F6" s="1">
-        <f>IF(AND(OR(B6=100), E6&gt;99.49), 100, IF(AND(B6&lt;100, E6&gt;99.49), 99,  IF(OR(AND(E6&gt;=54.5, E6&lt;=59.49), E6&gt;=59.5), IF(E6&gt;=59.5, IF(E6+1&gt;99.49, 99, E6+1), 60), IF(OR(B6=0), 0, E6))))</f>
+        <f t="shared" si="5"/>
         <v>97.3</v>
       </c>
       <c r="G6" s="1">
-        <f>ROUND(F6,0)</f>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f>IF(G6&gt;=94, "A+", IF(G6&gt;=87, "A", IF(G6&gt;=80, "A-", IF(G6&gt;=77, "B+", IF(G6&gt;=73, "B", IF(G6&gt;=70, "B-", IF(G6&gt;=67, "C+", IF(G6&gt;=63, "C", IF(G6&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="4"/>
         <v>A+</v>
       </c>
       <c r="O6" s="3"/>
@@ -756,27 +756,27 @@
         <v>69</v>
       </c>
       <c r="C7" s="1">
-        <f xml:space="preserve"> ROUND((B7 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="D7" s="1">
-        <f>C7 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <f t="shared" si="1"/>
         <v>93.3</v>
       </c>
       <c r="E7" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D7 + (99.49 - MAX($D$2:$D$25)), D7)</f>
+        <f t="shared" si="2"/>
         <v>93.3</v>
       </c>
       <c r="F7" s="1">
-        <f>IF(AND(OR(B7=100), E7&gt;99.49), 100, IF(AND(B7&lt;100, E7&gt;99.49), 99,  IF(OR(AND(E7&gt;=54.5, E7&lt;=59.49), E7&gt;=59.5), IF(E7&gt;=59.5, IF(E7+1&gt;99.49, 99, E7+1), 60), IF(OR(B7=0), 0, E7))))</f>
+        <f t="shared" si="5"/>
         <v>94.3</v>
       </c>
       <c r="G7" s="1">
-        <f>ROUND(F7,0)</f>
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f>IF(G7&gt;=94, "A+", IF(G7&gt;=87, "A", IF(G7&gt;=80, "A-", IF(G7&gt;=77, "B+", IF(G7&gt;=73, "B", IF(G7&gt;=70, "B-", IF(G7&gt;=67, "C+", IF(G7&gt;=63, "C", IF(G7&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="4"/>
         <v>A+</v>
       </c>
       <c r="O7" s="3"/>
@@ -789,27 +789,27 @@
         <v>60</v>
       </c>
       <c r="C8" s="1">
-        <f xml:space="preserve"> ROUND((B8 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="D8" s="1">
-        <f>C8 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <f t="shared" si="1"/>
         <v>84.3</v>
       </c>
       <c r="E8" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D8 + (99.49 - MAX($D$2:$D$25)), D8)</f>
+        <f t="shared" si="2"/>
         <v>84.3</v>
       </c>
       <c r="F8" s="1">
-        <f>IF(AND(OR(B8=100), E8&gt;99.49), 100, IF(AND(B8&lt;100, E8&gt;99.49), 99,  IF(OR(AND(E8&gt;=54.5, E8&lt;=59.49), E8&gt;=59.5), IF(E8&gt;=59.5, IF(E8+1&gt;99.49, 99, E8+1), 60), IF(OR(B8=0), 0, E8))))</f>
+        <f t="shared" si="5"/>
         <v>85.3</v>
       </c>
       <c r="G8" s="1">
-        <f>ROUND(F8,0)</f>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f>IF(G8&gt;=94, "A+", IF(G8&gt;=87, "A", IF(G8&gt;=80, "A-", IF(G8&gt;=77, "B+", IF(G8&gt;=73, "B", IF(G8&gt;=70, "B-", IF(G8&gt;=67, "C+", IF(G8&gt;=63, "C", IF(G8&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="4"/>
         <v>A-</v>
       </c>
     </row>
@@ -821,27 +821,27 @@
         <v>57</v>
       </c>
       <c r="C9" s="1">
-        <f xml:space="preserve"> ROUND((B9 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="D9" s="1">
-        <f>C9 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <f t="shared" si="1"/>
         <v>81.3</v>
       </c>
       <c r="E9" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D9 + (99.49 - MAX($D$2:$D$25)), D9)</f>
+        <f t="shared" si="2"/>
         <v>81.3</v>
       </c>
       <c r="F9" s="1">
-        <f>IF(AND(OR(B9=100), E9&gt;99.49), 100, IF(AND(B9&lt;100, E9&gt;99.49), 99,  IF(OR(AND(E9&gt;=54.5, E9&lt;=59.49), E9&gt;=59.5), IF(E9&gt;=59.5, IF(E9+1&gt;99.49, 99, E9+1), 60), IF(OR(B9=0), 0, E9))))</f>
+        <f t="shared" si="5"/>
         <v>82.3</v>
       </c>
       <c r="G9" s="1">
-        <f>ROUND(F9,0)</f>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f>IF(G9&gt;=94, "A+", IF(G9&gt;=87, "A", IF(G9&gt;=80, "A-", IF(G9&gt;=77, "B+", IF(G9&gt;=73, "B", IF(G9&gt;=70, "B-", IF(G9&gt;=67, "C+", IF(G9&gt;=63, "C", IF(G9&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="4"/>
         <v>A-</v>
       </c>
       <c r="N9" s="2"/>
@@ -855,27 +855,27 @@
         <v>57</v>
       </c>
       <c r="C10" s="1">
-        <f xml:space="preserve"> ROUND((B10 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="D10" s="1">
-        <f>C10 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <f t="shared" si="1"/>
         <v>81.3</v>
       </c>
       <c r="E10" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D10 + (99.49 - MAX($D$2:$D$25)), D10)</f>
+        <f t="shared" si="2"/>
         <v>81.3</v>
       </c>
       <c r="F10" s="1">
-        <f>IF(AND(OR(B10=100), E10&gt;99.49), 100, IF(AND(B10&lt;100, E10&gt;99.49), 99,  IF(OR(AND(E10&gt;=54.5, E10&lt;=59.49), E10&gt;=59.5), IF(E10&gt;=59.5, IF(E10+1&gt;99.49, 99, E10+1), 60), IF(OR(B10=0), 0, E10))))</f>
+        <f t="shared" si="5"/>
         <v>82.3</v>
       </c>
       <c r="G10" s="1">
-        <f>ROUND(F10,0)</f>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f>IF(G10&gt;=94, "A+", IF(G10&gt;=87, "A", IF(G10&gt;=80, "A-", IF(G10&gt;=77, "B+", IF(G10&gt;=73, "B", IF(G10&gt;=70, "B-", IF(G10&gt;=67, "C+", IF(G10&gt;=63, "C", IF(G10&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="4"/>
         <v>A-</v>
       </c>
       <c r="O10" s="3"/>
@@ -888,27 +888,27 @@
         <v>56</v>
       </c>
       <c r="C11" s="1">
-        <f xml:space="preserve"> ROUND((B11 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="D11" s="1">
-        <f>C11 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <f t="shared" si="1"/>
         <v>80.3</v>
       </c>
       <c r="E11" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D11 + (99.49 - MAX($D$2:$D$25)), D11)</f>
+        <f t="shared" si="2"/>
         <v>80.3</v>
       </c>
       <c r="F11" s="1">
-        <f>IF(AND(OR(B11=100), E11&gt;99.49), 100, IF(AND(B11&lt;100, E11&gt;99.49), 99,  IF(OR(AND(E11&gt;=54.5, E11&lt;=59.49), E11&gt;=59.5), IF(E11&gt;=59.5, IF(E11+1&gt;99.49, 99, E11+1), 60), IF(OR(B11=0), 0, E11))))</f>
+        <f t="shared" si="5"/>
         <v>81.3</v>
       </c>
       <c r="G11" s="1">
-        <f>ROUND(F11,0)</f>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f>IF(G11&gt;=94, "A+", IF(G11&gt;=87, "A", IF(G11&gt;=80, "A-", IF(G11&gt;=77, "B+", IF(G11&gt;=73, "B", IF(G11&gt;=70, "B-", IF(G11&gt;=67, "C+", IF(G11&gt;=63, "C", IF(G11&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="4"/>
         <v>A-</v>
       </c>
       <c r="O11" s="3"/>
@@ -921,27 +921,27 @@
         <v>56</v>
       </c>
       <c r="C12" s="1">
-        <f xml:space="preserve"> ROUND((B12 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="D12" s="1">
-        <f>C12 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <f t="shared" si="1"/>
         <v>80.3</v>
       </c>
       <c r="E12" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D12 + (99.49 - MAX($D$2:$D$25)), D12)</f>
+        <f t="shared" si="2"/>
         <v>80.3</v>
       </c>
       <c r="F12" s="1">
-        <f>IF(AND(OR(B12=100), E12&gt;99.49), 100, IF(AND(B12&lt;100, E12&gt;99.49), 99,  IF(OR(AND(E12&gt;=54.5, E12&lt;=59.49), E12&gt;=59.5), IF(E12&gt;=59.5, IF(E12+1&gt;99.49, 99, E12+1), 60), IF(OR(B12=0), 0, E12))))</f>
+        <f t="shared" si="5"/>
         <v>81.3</v>
       </c>
       <c r="G12" s="1">
-        <f>ROUND(F12,0)</f>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f>IF(G12&gt;=94, "A+", IF(G12&gt;=87, "A", IF(G12&gt;=80, "A-", IF(G12&gt;=77, "B+", IF(G12&gt;=73, "B", IF(G12&gt;=70, "B-", IF(G12&gt;=67, "C+", IF(G12&gt;=63, "C", IF(G12&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="4"/>
         <v>A-</v>
       </c>
       <c r="O12" s="3"/>
@@ -954,27 +954,27 @@
         <v>53</v>
       </c>
       <c r="C13" s="1">
-        <f xml:space="preserve"> ROUND((B13 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="D13" s="1">
-        <f>C13 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <f t="shared" si="1"/>
         <v>77.3</v>
       </c>
       <c r="E13" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D13 + (99.49 - MAX($D$2:$D$25)), D13)</f>
+        <f t="shared" si="2"/>
         <v>77.3</v>
       </c>
       <c r="F13" s="1">
-        <f>IF(AND(OR(B13=100), E13&gt;99.49), 100, IF(AND(B13&lt;100, E13&gt;99.49), 99,  IF(OR(AND(E13&gt;=54.5, E13&lt;=59.49), E13&gt;=59.5), IF(E13&gt;=59.5, IF(E13+1&gt;99.49, 99, E13+1), 60), IF(OR(B13=0), 0, E13))))</f>
+        <f t="shared" si="5"/>
         <v>78.3</v>
       </c>
       <c r="G13" s="1">
-        <f>ROUND(F13,0)</f>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f>IF(G13&gt;=94, "A+", IF(G13&gt;=87, "A", IF(G13&gt;=80, "A-", IF(G13&gt;=77, "B+", IF(G13&gt;=73, "B", IF(G13&gt;=70, "B-", IF(G13&gt;=67, "C+", IF(G13&gt;=63, "C", IF(G13&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="4"/>
         <v>B+</v>
       </c>
       <c r="O13" s="3"/>
@@ -987,27 +987,27 @@
         <v>53</v>
       </c>
       <c r="C14" s="1">
-        <f xml:space="preserve"> ROUND((B14 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="D14" s="1">
-        <f>C14 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <f t="shared" si="1"/>
         <v>77.3</v>
       </c>
       <c r="E14" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D14 + (99.49 - MAX($D$2:$D$25)), D14)</f>
+        <f t="shared" si="2"/>
         <v>77.3</v>
       </c>
       <c r="F14" s="1">
-        <f>IF(AND(OR(B14=100), E14&gt;99.49), 100, IF(AND(B14&lt;100, E14&gt;99.49), 99,  IF(OR(AND(E14&gt;=54.5, E14&lt;=59.49), E14&gt;=59.5), IF(E14&gt;=59.5, IF(E14+1&gt;99.49, 99, E14+1), 60), IF(OR(B14=0), 0, E14))))</f>
+        <f t="shared" si="5"/>
         <v>78.3</v>
       </c>
       <c r="G14" s="1">
-        <f>ROUND(F14,0)</f>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f>IF(G14&gt;=94, "A+", IF(G14&gt;=87, "A", IF(G14&gt;=80, "A-", IF(G14&gt;=77, "B+", IF(G14&gt;=73, "B", IF(G14&gt;=70, "B-", IF(G14&gt;=67, "C+", IF(G14&gt;=63, "C", IF(G14&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="4"/>
         <v>B+</v>
       </c>
       <c r="O14" s="3"/>
@@ -1020,27 +1020,27 @@
         <v>52</v>
       </c>
       <c r="C15" s="1">
-        <f xml:space="preserve"> ROUND((B15 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="D15" s="1">
-        <f>C15 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <f t="shared" si="1"/>
         <v>76.3</v>
       </c>
       <c r="E15" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D15 + (99.49 - MAX($D$2:$D$25)), D15)</f>
+        <f t="shared" si="2"/>
         <v>76.3</v>
       </c>
       <c r="F15" s="1">
-        <f>IF(AND(OR(B15=100), E15&gt;99.49), 100, IF(AND(B15&lt;100, E15&gt;99.49), 99,  IF(OR(AND(E15&gt;=54.5, E15&lt;=59.49), E15&gt;=59.5), IF(E15&gt;=59.5, IF(E15+1&gt;99.49, 99, E15+1), 60), IF(OR(B15=0), 0, E15))))</f>
+        <f t="shared" si="5"/>
         <v>77.3</v>
       </c>
       <c r="G15" s="1">
-        <f>ROUND(F15,0)</f>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f>IF(G15&gt;=94, "A+", IF(G15&gt;=87, "A", IF(G15&gt;=80, "A-", IF(G15&gt;=77, "B+", IF(G15&gt;=73, "B", IF(G15&gt;=70, "B-", IF(G15&gt;=67, "C+", IF(G15&gt;=63, "C", IF(G15&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="4"/>
         <v>B+</v>
       </c>
       <c r="O15" s="3"/>
@@ -1053,27 +1053,27 @@
         <v>50</v>
       </c>
       <c r="C16" s="1">
-        <f xml:space="preserve"> ROUND((B16 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="D16" s="1">
-        <f>C16 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <f t="shared" si="1"/>
         <v>74.3</v>
       </c>
       <c r="E16" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D16 + (99.49 - MAX($D$2:$D$25)), D16)</f>
+        <f t="shared" si="2"/>
         <v>74.3</v>
       </c>
       <c r="F16" s="1">
-        <f>IF(AND(OR(B16=100), E16&gt;99.49), 100, IF(AND(B16&lt;100, E16&gt;99.49), 99,  IF(OR(AND(E16&gt;=54.5, E16&lt;=59.49), E16&gt;=59.5), IF(E16&gt;=59.5, IF(E16+1&gt;99.49, 99, E16+1), 60), IF(OR(B16=0), 0, E16))))</f>
+        <f t="shared" si="5"/>
         <v>75.3</v>
       </c>
       <c r="G16" s="1">
-        <f>ROUND(F16,0)</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f>IF(G16&gt;=94, "A+", IF(G16&gt;=87, "A", IF(G16&gt;=80, "A-", IF(G16&gt;=77, "B+", IF(G16&gt;=73, "B", IF(G16&gt;=70, "B-", IF(G16&gt;=67, "C+", IF(G16&gt;=63, "C", IF(G16&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="O16" s="3"/>
@@ -1086,27 +1086,27 @@
         <v>48</v>
       </c>
       <c r="C17" s="1">
-        <f xml:space="preserve"> ROUND((B17 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="D17" s="1">
-        <f>C17 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <f t="shared" si="1"/>
         <v>72.3</v>
       </c>
       <c r="E17" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D17 + (99.49 - MAX($D$2:$D$25)), D17)</f>
+        <f t="shared" si="2"/>
         <v>72.3</v>
       </c>
       <c r="F17" s="1">
-        <f>IF(AND(OR(B17=100), E17&gt;99.49), 100, IF(AND(B17&lt;100, E17&gt;99.49), 99,  IF(OR(AND(E17&gt;=54.5, E17&lt;=59.49), E17&gt;=59.5), IF(E17&gt;=59.5, IF(E17+1&gt;99.49, 99, E17+1), 60), IF(OR(B17=0), 0, E17))))</f>
+        <f t="shared" si="5"/>
         <v>73.3</v>
       </c>
       <c r="G17" s="1">
-        <f>ROUND(F17,0)</f>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f>IF(G17&gt;=94, "A+", IF(G17&gt;=87, "A", IF(G17&gt;=80, "A-", IF(G17&gt;=77, "B+", IF(G17&gt;=73, "B", IF(G17&gt;=70, "B-", IF(G17&gt;=67, "C+", IF(G17&gt;=63, "C", IF(G17&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="O17" s="3"/>
@@ -1119,27 +1119,27 @@
         <v>47</v>
       </c>
       <c r="C18" s="1">
-        <f xml:space="preserve"> ROUND((B18 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="D18" s="1">
-        <f>C18 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <f t="shared" si="1"/>
         <v>71.3</v>
       </c>
       <c r="E18" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D18 + (99.49 - MAX($D$2:$D$25)), D18)</f>
+        <f t="shared" si="2"/>
         <v>71.3</v>
       </c>
       <c r="F18" s="1">
-        <f>IF(AND(OR(B18=100), E18&gt;99.49), 100, IF(AND(B18&lt;100, E18&gt;99.49), 99,  IF(OR(AND(E18&gt;=54.5, E18&lt;=59.49), E18&gt;=59.5), IF(E18&gt;=59.5, IF(E18+1&gt;99.49, 99, E18+1), 60), IF(OR(B18=0), 0, E18))))</f>
+        <f t="shared" si="5"/>
         <v>72.3</v>
       </c>
       <c r="G18" s="1">
-        <f>ROUND(F18,0)</f>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="H18" s="1" t="str">
-        <f>IF(G18&gt;=94, "A+", IF(G18&gt;=87, "A", IF(G18&gt;=80, "A-", IF(G18&gt;=77, "B+", IF(G18&gt;=73, "B", IF(G18&gt;=70, "B-", IF(G18&gt;=67, "C+", IF(G18&gt;=63, "C", IF(G18&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="4"/>
         <v>B-</v>
       </c>
       <c r="O18" s="3"/>
@@ -1152,27 +1152,27 @@
         <v>46</v>
       </c>
       <c r="C19" s="1">
-        <f xml:space="preserve"> ROUND((B19 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="D19" s="1">
-        <f>C19 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <f t="shared" si="1"/>
         <v>70.3</v>
       </c>
       <c r="E19" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D19 + (99.49 - MAX($D$2:$D$25)), D19)</f>
+        <f t="shared" si="2"/>
         <v>70.3</v>
       </c>
       <c r="F19" s="1">
-        <f>IF(AND(OR(B19=100), E19&gt;99.49), 100, IF(AND(B19&lt;100, E19&gt;99.49), 99,  IF(OR(AND(E19&gt;=54.5, E19&lt;=59.49), E19&gt;=59.5), IF(E19&gt;=59.5, IF(E19+1&gt;99.49, 99, E19+1), 60), IF(OR(B19=0), 0, E19))))</f>
+        <f t="shared" si="5"/>
         <v>71.3</v>
       </c>
       <c r="G19" s="1">
-        <f>ROUND(F19,0)</f>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f>IF(G19&gt;=94, "A+", IF(G19&gt;=87, "A", IF(G19&gt;=80, "A-", IF(G19&gt;=77, "B+", IF(G19&gt;=73, "B", IF(G19&gt;=70, "B-", IF(G19&gt;=67, "C+", IF(G19&gt;=63, "C", IF(G19&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="4"/>
         <v>B-</v>
       </c>
       <c r="O19" s="3"/>
@@ -1185,27 +1185,27 @@
         <v>45</v>
       </c>
       <c r="C20" s="1">
-        <f xml:space="preserve"> ROUND((B20 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="D20" s="1">
-        <f>C20 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <f t="shared" si="1"/>
         <v>69.3</v>
       </c>
       <c r="E20" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D20 + (99.49 - MAX($D$2:$D$25)), D20)</f>
+        <f t="shared" si="2"/>
         <v>69.3</v>
       </c>
       <c r="F20" s="1">
-        <f>IF(AND(OR(B20=100), E20&gt;99.49), 100, IF(AND(B20&lt;100, E20&gt;99.49), 99,  IF(OR(AND(E20&gt;=54.5, E20&lt;=59.49), E20&gt;=59.5), IF(E20&gt;=59.5, IF(E20+1&gt;99.49, 99, E20+1), 60), IF(OR(B20=0), 0, E20))))</f>
+        <f t="shared" si="5"/>
         <v>70.3</v>
       </c>
       <c r="G20" s="1">
-        <f>ROUND(F20,0)</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="H20" s="1" t="str">
-        <f>IF(G20&gt;=94, "A+", IF(G20&gt;=87, "A", IF(G20&gt;=80, "A-", IF(G20&gt;=77, "B+", IF(G20&gt;=73, "B", IF(G20&gt;=70, "B-", IF(G20&gt;=67, "C+", IF(G20&gt;=63, "C", IF(G20&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="4"/>
         <v>B-</v>
       </c>
     </row>
@@ -1217,27 +1217,27 @@
         <v>45</v>
       </c>
       <c r="C21" s="1">
-        <f xml:space="preserve"> ROUND((B21 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="D21" s="1">
-        <f>C21 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <f t="shared" si="1"/>
         <v>69.3</v>
       </c>
       <c r="E21" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D21 + (99.49 - MAX($D$2:$D$25)), D21)</f>
+        <f t="shared" si="2"/>
         <v>69.3</v>
       </c>
       <c r="F21" s="1">
-        <f>IF(AND(OR(B21=100), E21&gt;99.49), 100, IF(AND(B21&lt;100, E21&gt;99.49), 99,  IF(OR(AND(E21&gt;=54.5, E21&lt;=59.49), E21&gt;=59.5), IF(E21&gt;=59.5, IF(E21+1&gt;99.49, 99, E21+1), 60), IF(OR(B21=0), 0, E21))))</f>
+        <f t="shared" si="5"/>
         <v>70.3</v>
       </c>
       <c r="G21" s="1">
-        <f>ROUND(F21,0)</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="H21" s="1" t="str">
-        <f>IF(G21&gt;=94, "A+", IF(G21&gt;=87, "A", IF(G21&gt;=80, "A-", IF(G21&gt;=77, "B+", IF(G21&gt;=73, "B", IF(G21&gt;=70, "B-", IF(G21&gt;=67, "C+", IF(G21&gt;=63, "C", IF(G21&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="4"/>
         <v>B-</v>
       </c>
     </row>
@@ -1249,27 +1249,27 @@
         <v>40</v>
       </c>
       <c r="C22" s="1">
-        <f xml:space="preserve"> ROUND((B22 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D22" s="1">
-        <f>C22 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <f t="shared" si="1"/>
         <v>64.3</v>
       </c>
       <c r="E22" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D22 + (99.49 - MAX($D$2:$D$25)), D22)</f>
+        <f t="shared" si="2"/>
         <v>64.3</v>
       </c>
       <c r="F22" s="1">
-        <f>IF(AND(OR(B22=100), E22&gt;99.49), 100, IF(AND(B22&lt;100, E22&gt;99.49), 99,  IF(OR(AND(E22&gt;=54.5, E22&lt;=59.49), E22&gt;=59.5), IF(E22&gt;=59.5, IF(E22+1&gt;99.49, 99, E22+1), 60), IF(OR(B22=0), 0, E22))))</f>
+        <f t="shared" si="5"/>
         <v>65.3</v>
       </c>
       <c r="G22" s="1">
-        <f>ROUND(F22,0)</f>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="H22" s="1" t="str">
-        <f>IF(G22&gt;=94, "A+", IF(G22&gt;=87, "A", IF(G22&gt;=80, "A-", IF(G22&gt;=77, "B+", IF(G22&gt;=73, "B", IF(G22&gt;=70, "B-", IF(G22&gt;=67, "C+", IF(G22&gt;=63, "C", IF(G22&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="4"/>
         <v>C</v>
       </c>
     </row>
@@ -1281,27 +1281,27 @@
         <v>37</v>
       </c>
       <c r="C23" s="1">
-        <f xml:space="preserve"> ROUND((B23 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="D23" s="1">
-        <f>C23 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <f t="shared" si="1"/>
         <v>61.3</v>
       </c>
       <c r="E23" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D23 + (99.49 - MAX($D$2:$D$25)), D23)</f>
+        <f t="shared" si="2"/>
         <v>61.3</v>
       </c>
       <c r="F23" s="1">
-        <f>IF(AND(OR(B23=100), E23&gt;99.49), 100, IF(AND(B23&lt;100, E23&gt;99.49), 99,  IF(OR(AND(E23&gt;=54.5, E23&lt;=59.49), E23&gt;=59.5), IF(E23&gt;=59.5, IF(E23+1&gt;99.49, 99, E23+1), 60), IF(OR(B23=0), 0, E23))))</f>
+        <f t="shared" si="5"/>
         <v>62.3</v>
       </c>
       <c r="G23" s="1">
-        <f>ROUND(F23,0)</f>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="H23" s="1" t="str">
-        <f>IF(G23&gt;=94, "A+", IF(G23&gt;=87, "A", IF(G23&gt;=80, "A-", IF(G23&gt;=77, "B+", IF(G23&gt;=73, "B", IF(G23&gt;=70, "B-", IF(G23&gt;=67, "C+", IF(G23&gt;=63, "C", IF(G23&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="4"/>
         <v>C-</v>
       </c>
     </row>
@@ -1313,27 +1313,27 @@
         <v>36</v>
       </c>
       <c r="C24" s="1">
-        <f xml:space="preserve"> ROUND((B24 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="D24" s="1">
-        <f>C24 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <f t="shared" si="1"/>
         <v>60.3</v>
       </c>
       <c r="E24" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D24 + (99.49 - MAX($D$2:$D$25)), D24)</f>
+        <f t="shared" si="2"/>
         <v>60.3</v>
       </c>
       <c r="F24" s="1">
-        <f>IF(AND(OR(B24=100), E24&gt;99.49), 100, IF(AND(B24&lt;100, E24&gt;99.49), 99,  IF(OR(AND(E24&gt;=54.5, E24&lt;=59.49), E24&gt;=59.5), IF(E24&gt;=59.5, IF(E24+1&gt;99.49, 99, E24+1), 60), IF(OR(B24=0), 0, E24))))</f>
+        <f t="shared" si="5"/>
         <v>61.3</v>
       </c>
       <c r="G24" s="1">
-        <f>ROUND(F24,0)</f>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="H24" s="1" t="str">
-        <f>IF(G24&gt;=94, "A+", IF(G24&gt;=87, "A", IF(G24&gt;=80, "A-", IF(G24&gt;=77, "B+", IF(G24&gt;=73, "B", IF(G24&gt;=70, "B-", IF(G24&gt;=67, "C+", IF(G24&gt;=63, "C", IF(G24&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="4"/>
         <v>C-</v>
       </c>
     </row>
@@ -1345,27 +1345,27 @@
         <v>35</v>
       </c>
       <c r="C25" s="1">
-        <f xml:space="preserve"> ROUND((B25 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="D25" s="1">
-        <f>C25 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <f t="shared" si="1"/>
         <v>59.3</v>
       </c>
       <c r="E25" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D25 + (99.49 - MAX($D$2:$D$25)), D25)</f>
+        <f t="shared" si="2"/>
         <v>59.3</v>
       </c>
       <c r="F25" s="1">
-        <f>IF(AND(OR(B25=100), E25&gt;99.49), 100, IF(AND(B25&lt;100, E25&gt;99.49), 99,  IF(OR(AND(E25&gt;=54.5, E25&lt;=59.49), E25&gt;=59.5), IF(E25&gt;=59.5, IF(E25+1&gt;99.49, 99, E25+1), 60), IF(OR(B25=0), 0, E25))))</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="G25" s="1">
-        <f>ROUND(F25,0)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="H25" s="1" t="str">
-        <f>IF(G25&gt;=94, "A+", IF(G25&gt;=87, "A", IF(G25&gt;=80, "A-", IF(G25&gt;=77, "B+", IF(G25&gt;=73, "B", IF(G25&gt;=70, "B-", IF(G25&gt;=67, "C+", IF(G25&gt;=63, "C", IF(G25&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="4"/>
         <v>C-</v>
       </c>
     </row>
@@ -1377,27 +1377,27 @@
         <v>35</v>
       </c>
       <c r="C26" s="1">
-        <f xml:space="preserve"> ROUND((B26 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="D26" s="1">
-        <f>C26 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <f t="shared" si="1"/>
         <v>59.3</v>
       </c>
       <c r="E26" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D26 + (99.49 - MAX($D$2:$D$25)), D26)</f>
+        <f t="shared" si="2"/>
         <v>59.3</v>
       </c>
       <c r="F26" s="1">
-        <f>IF(AND(OR(B26=100), E26&gt;99.49), 100, IF(AND(B26&lt;100, E26&gt;99.49), 99,  IF(OR(AND(E26&gt;=54.5, E26&lt;=59.49), E26&gt;=59.5), IF(E26&gt;=59.5, IF(E26+1&gt;99.49, 99, E26+1), 60), IF(OR(B26=0), 0, E26))))</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="G26" s="1">
-        <f>ROUND(F26,0)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="H26" s="1" t="str">
-        <f>IF(G26&gt;=94, "A+", IF(G26&gt;=87, "A", IF(G26&gt;=80, "A-", IF(G26&gt;=77, "B+", IF(G26&gt;=73, "B", IF(G26&gt;=70, "B-", IF(G26&gt;=67, "C+", IF(G26&gt;=63, "C", IF(G26&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="4"/>
         <v>C-</v>
       </c>
     </row>
@@ -1409,27 +1409,27 @@
         <v>34</v>
       </c>
       <c r="C27" s="1">
-        <f xml:space="preserve"> ROUND((B27 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="D27" s="1">
-        <f>C27 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <f t="shared" si="1"/>
         <v>58.3</v>
       </c>
       <c r="E27" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D27 + (99.49 - MAX($D$2:$D$25)), D27)</f>
+        <f t="shared" si="2"/>
         <v>58.3</v>
       </c>
       <c r="F27" s="1">
-        <f>IF(AND(OR(B27=100), E27&gt;99.49), 100, IF(AND(B27&lt;100, E27&gt;99.49), 99,  IF(OR(AND(E27&gt;=54.5, E27&lt;=59.49), E27&gt;=59.5), IF(E27&gt;=59.5, IF(E27+1&gt;99.49, 99, E27+1), 60), IF(OR(B27=0), 0, E27))))</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="G27" s="1">
-        <f>ROUND(F27,0)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="H27" s="1" t="str">
-        <f>IF(G27&gt;=94, "A+", IF(G27&gt;=87, "A", IF(G27&gt;=80, "A-", IF(G27&gt;=77, "B+", IF(G27&gt;=73, "B", IF(G27&gt;=70, "B-", IF(G27&gt;=67, "C+", IF(G27&gt;=63, "C", IF(G27&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="4"/>
         <v>C-</v>
       </c>
     </row>
@@ -1441,27 +1441,27 @@
         <v>34</v>
       </c>
       <c r="C28" s="1">
-        <f xml:space="preserve"> ROUND((B28 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="D28" s="1">
-        <f>C28 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <f t="shared" si="1"/>
         <v>58.3</v>
       </c>
       <c r="E28" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D28 + (99.49 - MAX($D$2:$D$25)), D28)</f>
+        <f t="shared" si="2"/>
         <v>58.3</v>
       </c>
       <c r="F28" s="1">
-        <f>IF(AND(OR(B28=100), E28&gt;99.49), 100, IF(AND(B28&lt;100, E28&gt;99.49), 99,  IF(OR(AND(E28&gt;=54.5, E28&lt;=59.49), E28&gt;=59.5), IF(E28&gt;=59.5, IF(E28+1&gt;99.49, 99, E28+1), 60), IF(OR(B28=0), 0, E28))))</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="G28" s="1">
-        <f>ROUND(F28,0)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="H28" s="1" t="str">
-        <f>IF(G28&gt;=94, "A+", IF(G28&gt;=87, "A", IF(G28&gt;=80, "A-", IF(G28&gt;=77, "B+", IF(G28&gt;=73, "B", IF(G28&gt;=70, "B-", IF(G28&gt;=67, "C+", IF(G28&gt;=63, "C", IF(G28&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="4"/>
         <v>C-</v>
       </c>
     </row>
@@ -1470,27 +1470,27 @@
         <v>12</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" ref="B29:G29" si="0">ROUND(AVERAGE(B2:B28),2)</f>
+        <f t="shared" ref="B29:G29" si="6">ROUND(AVERAGE(B2:B28),2)</f>
         <v>53.7</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>53.7</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>77.56</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>77.33</v>
       </c>
       <c r="H29" s="1" t="str">

--- a/grade/grade.xlsx
+++ b/grade/grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/github/political_ideology/grade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E998DCCF-493C-2846-8646-F694D8EA1F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76C8D9E-CAC3-D746-98EF-1576CDF2730C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="600" windowWidth="24800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -541,7 +541,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -595,23 +595,23 @@
         <v>88</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D28" si="1">C2 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>112.3</v>
+        <f>C2 + (IF($C$29 &lt; 75, 75, $C$29) - $C$29)</f>
+        <v>109.3</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E28" si="2">IF(MAX($D$2:$D$25) &lt; 99.49, D2 + (99.49 - MAX($D$2:$D$25)), D2)</f>
-        <v>112.3</v>
+        <f t="shared" ref="E2:E28" si="1">IF(MAX($D$2:$D$25) &lt; 99.49, D2 + (99.49 - MAX($D$2:$D$25)), D2)</f>
+        <v>109.3</v>
       </c>
       <c r="F2" s="1">
-        <f>IF(AND(OR(B2=100), E2&gt;99.49), 100, IF(AND(B2&lt;100, E2&gt;99.49), 99,  IF(OR(AND(E2&gt;=57.5, E2&lt;=59.49), E2&gt;=59.5), IF(E2&gt;=59.5, IF(E2+1&gt;99.49, 99, E2+1), 60), IF(OR(B2=0), 0, E2))))</f>
+        <f>IF(AND(OR(B2=100), E2&gt;99.49), 100, IF(AND(B2&lt;100, E2&gt;99.49), 99,  IF(OR(AND(E2&gt;=54.5, E2&lt;=59.49), E2&gt;=59.5), IF(E2&gt;=59.5, IF(E2+1&gt;99.49, 99, E2+1), 60), IF(OR(B2=0), 0, E2))))</f>
         <v>99</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G28" si="3">ROUND(F2,0)</f>
+        <f t="shared" ref="G2:G28" si="2">ROUND(F2,0)</f>
         <v>99</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f t="shared" ref="H2:H28" si="4">IF(G2&gt;=94, "A+", IF(G2&gt;=87, "A", IF(G2&gt;=80, "A-", IF(G2&gt;=77, "B+", IF(G2&gt;=73, "B", IF(G2&gt;=70, "B-", IF(G2&gt;=67, "C+", IF(G2&gt;=63, "C", IF(G2&gt;=60, "C-", "F")))))))))</f>
+        <f>IF(G2&gt;=90, "A+", IF(G2&gt;=85, "A", IF(G2&gt;=80, "A-", IF(G2&gt;=77, "B+", IF(G2&gt;=73, "B", IF(G2&gt;=70, "B-", IF(G2&gt;=67, "C+", IF(G2&gt;=63, "C", IF(G2&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="O2" s="3"/>
@@ -628,23 +628,23 @@
         <v>87</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" si="1"/>
-        <v>111.3</v>
+        <f t="shared" ref="D3:D28" si="3">C3 + (IF($C$29 &lt; 75, 75, $C$29) - $C$29)</f>
+        <v>108.3</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" si="2"/>
-        <v>111.3</v>
+        <f t="shared" si="1"/>
+        <v>108.3</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F28" si="5">IF(AND(OR(B3=100), E3&gt;99.49), 100, IF(AND(B3&lt;100, E3&gt;99.49), 99,  IF(OR(AND(E3&gt;=57.5, E3&lt;=59.49), E3&gt;=59.5), IF(E3&gt;=59.5, IF(E3+1&gt;99.49, 99, E3+1), 60), IF(OR(B3=0), 0, E3))))</f>
+        <f t="shared" ref="F3:F28" si="4">IF(AND(OR(B3=100), E3&gt;99.49), 100, IF(AND(B3&lt;100, E3&gt;99.49), 99,  IF(OR(AND(E3&gt;=54.5, E3&lt;=59.49), E3&gt;=59.5), IF(E3&gt;=59.5, IF(E3+1&gt;99.49, 99, E3+1), 60), IF(OR(B3=0), 0, E3))))</f>
         <v>99</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="H3:H28" si="5">IF(G3&gt;=90, "A+", IF(G3&gt;=85, "A", IF(G3&gt;=80, "A-", IF(G3&gt;=77, "B+", IF(G3&gt;=73, "B", IF(G3&gt;=70, "B-", IF(G3&gt;=67, "C+", IF(G3&gt;=63, "C", IF(G3&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="O3" s="3"/>
@@ -661,23 +661,23 @@
         <v>86</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="1"/>
-        <v>110.3</v>
+        <f t="shared" si="3"/>
+        <v>107.3</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="2"/>
-        <v>110.3</v>
+        <f t="shared" si="1"/>
+        <v>107.3</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A+</v>
       </c>
       <c r="O4" s="3"/>
@@ -694,23 +694,23 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="1"/>
-        <v>96.3</v>
+        <f t="shared" si="3"/>
+        <v>93.3</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="2"/>
-        <v>96.3</v>
+        <f t="shared" si="1"/>
+        <v>93.3</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="5"/>
-        <v>97.3</v>
+        <f t="shared" si="4"/>
+        <v>94.3</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="3"/>
-        <v>97</v>
+        <f t="shared" si="2"/>
+        <v>94</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A+</v>
       </c>
       <c r="O5" s="3"/>
@@ -727,23 +727,23 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="1"/>
-        <v>96.3</v>
+        <f t="shared" si="3"/>
+        <v>93.3</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="2"/>
-        <v>96.3</v>
+        <f t="shared" si="1"/>
+        <v>93.3</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="5"/>
-        <v>97.3</v>
+        <f t="shared" si="4"/>
+        <v>94.3</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="3"/>
-        <v>97</v>
+        <f t="shared" si="2"/>
+        <v>94</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A+</v>
       </c>
       <c r="O6" s="3"/>
@@ -760,23 +760,23 @@
         <v>69</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="1"/>
-        <v>93.3</v>
+        <f t="shared" si="3"/>
+        <v>90.3</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="2"/>
-        <v>93.3</v>
+        <f t="shared" si="1"/>
+        <v>90.3</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="5"/>
-        <v>94.3</v>
+        <f t="shared" si="4"/>
+        <v>91.3</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="3"/>
-        <v>94</v>
+        <f t="shared" si="2"/>
+        <v>91</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A+</v>
       </c>
       <c r="O7" s="3"/>
@@ -793,23 +793,23 @@
         <v>60</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="1"/>
-        <v>84.3</v>
+        <f t="shared" si="3"/>
+        <v>81.3</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="2"/>
-        <v>84.3</v>
+        <f t="shared" si="1"/>
+        <v>81.3</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="5"/>
-        <v>85.3</v>
+        <f t="shared" si="4"/>
+        <v>82.3</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="3"/>
-        <v>85</v>
+        <f t="shared" si="2"/>
+        <v>82</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A-</v>
       </c>
     </row>
@@ -825,24 +825,24 @@
         <v>57</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="1"/>
-        <v>81.3</v>
+        <f t="shared" si="3"/>
+        <v>78.3</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="2"/>
-        <v>81.3</v>
+        <f t="shared" si="1"/>
+        <v>78.3</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="5"/>
-        <v>82.3</v>
+        <f t="shared" si="4"/>
+        <v>79.3</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="3"/>
-        <v>82</v>
+        <f t="shared" si="2"/>
+        <v>79</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>A-</v>
+        <f t="shared" si="5"/>
+        <v>B+</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -859,24 +859,24 @@
         <v>57</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="1"/>
-        <v>81.3</v>
+        <f t="shared" si="3"/>
+        <v>78.3</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="2"/>
-        <v>81.3</v>
+        <f t="shared" si="1"/>
+        <v>78.3</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="5"/>
-        <v>82.3</v>
+        <f t="shared" si="4"/>
+        <v>79.3</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="3"/>
-        <v>82</v>
+        <f t="shared" si="2"/>
+        <v>79</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>A-</v>
+        <f t="shared" si="5"/>
+        <v>B+</v>
       </c>
       <c r="O10" s="3"/>
     </row>
@@ -892,24 +892,24 @@
         <v>56</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="1"/>
-        <v>80.3</v>
+        <f t="shared" si="3"/>
+        <v>77.3</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="2"/>
-        <v>80.3</v>
+        <f t="shared" si="1"/>
+        <v>77.3</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="5"/>
-        <v>81.3</v>
+        <f t="shared" si="4"/>
+        <v>78.3</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="3"/>
-        <v>81</v>
+        <f t="shared" si="2"/>
+        <v>78</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>A-</v>
+        <f t="shared" si="5"/>
+        <v>B+</v>
       </c>
       <c r="O11" s="3"/>
     </row>
@@ -925,24 +925,24 @@
         <v>56</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="1"/>
-        <v>80.3</v>
+        <f t="shared" si="3"/>
+        <v>77.3</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="2"/>
-        <v>80.3</v>
+        <f t="shared" si="1"/>
+        <v>77.3</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="5"/>
-        <v>81.3</v>
+        <f t="shared" si="4"/>
+        <v>78.3</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="3"/>
-        <v>81</v>
+        <f t="shared" si="2"/>
+        <v>78</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>A-</v>
+        <f t="shared" si="5"/>
+        <v>B+</v>
       </c>
       <c r="O12" s="3"/>
     </row>
@@ -958,24 +958,24 @@
         <v>53</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="1"/>
-        <v>77.3</v>
+        <f t="shared" si="3"/>
+        <v>74.3</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="2"/>
-        <v>77.3</v>
+        <f t="shared" si="1"/>
+        <v>74.3</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="5"/>
-        <v>78.3</v>
+        <f t="shared" si="4"/>
+        <v>75.3</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="3"/>
-        <v>78</v>
+        <f t="shared" si="2"/>
+        <v>75</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>B+</v>
+        <f t="shared" si="5"/>
+        <v>B</v>
       </c>
       <c r="O13" s="3"/>
     </row>
@@ -991,24 +991,24 @@
         <v>53</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="1"/>
-        <v>77.3</v>
+        <f t="shared" si="3"/>
+        <v>74.3</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="2"/>
-        <v>77.3</v>
+        <f t="shared" si="1"/>
+        <v>74.3</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="5"/>
-        <v>78.3</v>
+        <f t="shared" si="4"/>
+        <v>75.3</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="3"/>
-        <v>78</v>
+        <f t="shared" si="2"/>
+        <v>75</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>B+</v>
+        <f t="shared" si="5"/>
+        <v>B</v>
       </c>
       <c r="O14" s="3"/>
     </row>
@@ -1024,24 +1024,24 @@
         <v>52</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="1"/>
-        <v>76.3</v>
+        <f t="shared" si="3"/>
+        <v>73.3</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="2"/>
-        <v>76.3</v>
+        <f t="shared" si="1"/>
+        <v>73.3</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="5"/>
-        <v>77.3</v>
+        <f t="shared" si="4"/>
+        <v>74.3</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="3"/>
-        <v>77</v>
+        <f t="shared" si="2"/>
+        <v>74</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>B+</v>
+        <f t="shared" si="5"/>
+        <v>B</v>
       </c>
       <c r="O15" s="3"/>
     </row>
@@ -1057,24 +1057,24 @@
         <v>50</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="1"/>
-        <v>74.3</v>
+        <f t="shared" si="3"/>
+        <v>71.3</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="2"/>
-        <v>74.3</v>
+        <f t="shared" si="1"/>
+        <v>71.3</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="5"/>
-        <v>75.3</v>
+        <f t="shared" si="4"/>
+        <v>72.3</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="3"/>
-        <v>75</v>
+        <f t="shared" si="2"/>
+        <v>72</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
+        <f t="shared" si="5"/>
+        <v>B-</v>
       </c>
       <c r="O16" s="3"/>
     </row>
@@ -1090,24 +1090,24 @@
         <v>48</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="1"/>
-        <v>72.3</v>
+        <f t="shared" si="3"/>
+        <v>69.3</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="2"/>
-        <v>72.3</v>
+        <f t="shared" si="1"/>
+        <v>69.3</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="5"/>
-        <v>73.3</v>
+        <f t="shared" si="4"/>
+        <v>70.3</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="3"/>
-        <v>73</v>
+        <f t="shared" si="2"/>
+        <v>70</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
+        <f t="shared" si="5"/>
+        <v>B-</v>
       </c>
       <c r="O17" s="3"/>
     </row>
@@ -1123,24 +1123,24 @@
         <v>47</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="1"/>
-        <v>71.3</v>
+        <f t="shared" si="3"/>
+        <v>68.3</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="2"/>
-        <v>71.3</v>
+        <f t="shared" si="1"/>
+        <v>68.3</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="5"/>
-        <v>72.3</v>
+        <f t="shared" si="4"/>
+        <v>69.3</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="3"/>
-        <v>72</v>
+        <f t="shared" si="2"/>
+        <v>69</v>
       </c>
       <c r="H18" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>B-</v>
+        <f t="shared" si="5"/>
+        <v>C+</v>
       </c>
       <c r="O18" s="3"/>
     </row>
@@ -1156,24 +1156,24 @@
         <v>46</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="1"/>
-        <v>70.3</v>
+        <f t="shared" si="3"/>
+        <v>67.3</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="2"/>
-        <v>70.3</v>
+        <f t="shared" si="1"/>
+        <v>67.3</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="5"/>
-        <v>71.3</v>
+        <f t="shared" si="4"/>
+        <v>68.3</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="3"/>
-        <v>71</v>
+        <f t="shared" si="2"/>
+        <v>68</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>B-</v>
+        <f t="shared" si="5"/>
+        <v>C+</v>
       </c>
       <c r="O19" s="3"/>
     </row>
@@ -1189,24 +1189,24 @@
         <v>45</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="1"/>
-        <v>69.3</v>
+        <f t="shared" si="3"/>
+        <v>66.3</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="2"/>
-        <v>69.3</v>
+        <f t="shared" si="1"/>
+        <v>66.3</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="5"/>
-        <v>70.3</v>
+        <f t="shared" si="4"/>
+        <v>67.3</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="3"/>
-        <v>70</v>
+        <f t="shared" si="2"/>
+        <v>67</v>
       </c>
       <c r="H20" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>B-</v>
+        <f t="shared" si="5"/>
+        <v>C+</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1221,24 +1221,24 @@
         <v>45</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="1"/>
-        <v>69.3</v>
+        <f t="shared" si="3"/>
+        <v>66.3</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="2"/>
-        <v>69.3</v>
+        <f t="shared" si="1"/>
+        <v>66.3</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="5"/>
-        <v>70.3</v>
+        <f t="shared" si="4"/>
+        <v>67.3</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="3"/>
-        <v>70</v>
+        <f t="shared" si="2"/>
+        <v>67</v>
       </c>
       <c r="H21" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>B-</v>
+        <f t="shared" si="5"/>
+        <v>C+</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1253,24 +1253,24 @@
         <v>40</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="1"/>
-        <v>64.3</v>
+        <f t="shared" si="3"/>
+        <v>61.3</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="2"/>
-        <v>64.3</v>
+        <f t="shared" si="1"/>
+        <v>61.3</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="5"/>
-        <v>65.3</v>
+        <f t="shared" si="4"/>
+        <v>62.3</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="3"/>
-        <v>65</v>
+        <f t="shared" si="2"/>
+        <v>62</v>
       </c>
       <c r="H22" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>C</v>
+        <f t="shared" si="5"/>
+        <v>C-</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1285,23 +1285,23 @@
         <v>37</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="1"/>
-        <v>61.3</v>
+        <f t="shared" si="3"/>
+        <v>58.3</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="2"/>
-        <v>61.3</v>
+        <f t="shared" si="1"/>
+        <v>58.3</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="5"/>
-        <v>62.3</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="3"/>
-        <v>62</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="H23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>C-</v>
       </c>
     </row>
@@ -1317,23 +1317,23 @@
         <v>36</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="1"/>
-        <v>60.3</v>
+        <f t="shared" si="3"/>
+        <v>57.3</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="2"/>
-        <v>60.3</v>
+        <f t="shared" si="1"/>
+        <v>57.3</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="5"/>
-        <v>61.3</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="3"/>
-        <v>61</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="H24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>C-</v>
       </c>
     </row>
@@ -1349,23 +1349,23 @@
         <v>35</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="1"/>
-        <v>59.3</v>
+        <f t="shared" si="3"/>
+        <v>56.3</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="2"/>
-        <v>59.3</v>
+        <f t="shared" si="1"/>
+        <v>56.3</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="H25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>C-</v>
       </c>
     </row>
@@ -1381,23 +1381,23 @@
         <v>35</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="1"/>
-        <v>59.3</v>
+        <f t="shared" si="3"/>
+        <v>56.3</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="2"/>
-        <v>59.3</v>
+        <f t="shared" si="1"/>
+        <v>56.3</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="H26" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>C-</v>
       </c>
     </row>
@@ -1413,23 +1413,23 @@
         <v>34</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="1"/>
-        <v>58.3</v>
+        <f t="shared" si="3"/>
+        <v>55.3</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="2"/>
-        <v>58.3</v>
+        <f t="shared" si="1"/>
+        <v>55.3</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="H27" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>C-</v>
       </c>
     </row>
@@ -1445,23 +1445,23 @@
         <v>34</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="1"/>
-        <v>58.3</v>
+        <f t="shared" si="3"/>
+        <v>55.3</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="2"/>
-        <v>58.3</v>
+        <f t="shared" si="1"/>
+        <v>55.3</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="H28" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>C-</v>
       </c>
     </row>
@@ -1479,23 +1479,23 @@
       </c>
       <c r="D29" s="1">
         <f t="shared" si="6"/>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="6"/>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="6"/>
-        <v>77.56</v>
+        <v>75.42</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="6"/>
-        <v>77.33</v>
+        <v>75.22</v>
       </c>
       <c r="H29" s="1" t="str">
         <f>IF(G29&gt;=90, "A+", IF(G29&gt;=86, "A", IF(G29&gt;=80, "A-", IF(G29&gt;=77, "B+", IF(G29&gt;=73, "B", IF(G29&gt;=70, "B-", IF(G29&gt;=67, "C+", IF(G29&gt;=63, "C", IF(G29&gt;=60, "C-", "F")))))))))</f>
-        <v>B+</v>
+        <v>B</v>
       </c>
     </row>
   </sheetData>

--- a/grade/grade.xlsx
+++ b/grade/grade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/github/political_ideology/grade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76C8D9E-CAC3-D746-98EF-1576CDF2730C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAEE0AC-5168-BA44-A7C7-3EB01685A803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="600" windowWidth="24800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="600" windowWidth="23020" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Final</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Grade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,6 +162,10 @@
   </si>
   <si>
     <t>423__29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exam</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,6 +173,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -236,7 +239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -247,6 +250,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -548,7 +554,9 @@
   <cols>
     <col min="1" max="1" width="8.83203125" style="1"/>
     <col min="2" max="2" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="8.83203125" style="1"/>
+    <col min="3" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="1"/>
     <col min="11" max="11" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="8.83203125" style="1"/>
     <col min="14" max="14" width="10.5" style="1" bestFit="1" customWidth="1"/>
@@ -560,32 +568,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1">
         <v>88</v>
@@ -595,15 +603,15 @@
         <v>88</v>
       </c>
       <c r="D2" s="1">
-        <f>C2 + (IF($C$29 &lt; 75, 75, $C$29) - $C$29)</f>
-        <v>109.3</v>
+        <f>C2 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>111.89</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" ref="E2:E28" si="1">IF(MAX($D$2:$D$25) &lt; 99.49, D2 + (99.49 - MAX($D$2:$D$25)), D2)</f>
-        <v>109.3</v>
+        <v>111.89</v>
       </c>
       <c r="F2" s="1">
-        <f>IF(AND(OR(B2=100), E2&gt;99.49), 100, IF(AND(B2&lt;100, E2&gt;99.49), 99,  IF(OR(AND(E2&gt;=54.5, E2&lt;=59.49), E2&gt;=59.5), IF(E2&gt;=59.5, IF(E2+1&gt;99.49, 99, E2+1), 60), IF(OR(B2=0), 0, E2))))</f>
+        <f>IF(AND(OR(B2=100), E2&gt;99.49), 100, IF(AND(B2&lt;100, E2&gt;99.49), 99,  IF(OR(AND(E2&gt;54.5, E2&lt;=59.49), E2&gt;=59.5), IF(E2&gt;=59.5, IF(E2+1&gt;99.49, 99, E2+1), 60), IF(OR(B2=0), 0, E2))))</f>
         <v>99</v>
       </c>
       <c r="G2" s="1">
@@ -614,11 +622,12 @@
         <f>IF(G2&gt;=90, "A+", IF(G2&gt;=85, "A", IF(G2&gt;=80, "A-", IF(G2&gt;=77, "B+", IF(G2&gt;=73, "B", IF(G2&gt;=70, "B-", IF(G2&gt;=67, "C+", IF(G2&gt;=63, "C", IF(G2&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
+      <c r="I2" s="4"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>87</v>
@@ -628,15 +637,15 @@
         <v>87</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D28" si="3">C3 + (IF($C$29 &lt; 75, 75, $C$29) - $C$29)</f>
-        <v>108.3</v>
+        <f t="shared" ref="D3:D28" si="3">C3 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>110.89</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" si="1"/>
-        <v>108.3</v>
+        <v>110.89</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F28" si="4">IF(AND(OR(B3=100), E3&gt;99.49), 100, IF(AND(B3&lt;100, E3&gt;99.49), 99,  IF(OR(AND(E3&gt;=54.5, E3&lt;=59.49), E3&gt;=59.5), IF(E3&gt;=59.5, IF(E3+1&gt;99.49, 99, E3+1), 60), IF(OR(B3=0), 0, E3))))</f>
+        <f t="shared" ref="F3:F28" si="4">IF(AND(OR(B3=100), E3&gt;99.49), 100, IF(AND(B3&lt;100, E3&gt;99.49), 99,  IF(OR(AND(E3&gt;54.5, E3&lt;=59.49), E3&gt;=59.5), IF(E3&gt;=59.5, IF(E3+1&gt;99.49, 99, E3+1), 60), IF(OR(B3=0), 0, E3))))</f>
         <v>99</v>
       </c>
       <c r="G3" s="1">
@@ -651,7 +660,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>86</v>
@@ -662,11 +671,11 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" si="3"/>
-        <v>107.3</v>
+        <v>109.89</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="1"/>
-        <v>107.3</v>
+        <v>109.89</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="4"/>
@@ -684,7 +693,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>72</v>
@@ -695,19 +704,19 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" si="3"/>
-        <v>93.3</v>
+        <v>95.89</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>93.3</v>
+        <v>95.89</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="4"/>
-        <v>94.3</v>
+        <v>96.89</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" si="5"/>
@@ -717,7 +726,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>72</v>
@@ -728,19 +737,19 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="3"/>
-        <v>93.3</v>
+        <v>95.89</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="1"/>
-        <v>93.3</v>
+        <v>95.89</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="4"/>
-        <v>94.3</v>
+        <v>96.89</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H6" s="1" t="str">
         <f t="shared" si="5"/>
@@ -750,7 +759,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>69</v>
@@ -761,19 +770,19 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="3"/>
-        <v>90.3</v>
+        <v>92.89</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>90.3</v>
+        <v>92.89</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="4"/>
-        <v>91.3</v>
+        <v>93.89</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" si="5"/>
@@ -783,73 +792,73 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="3"/>
-        <v>81.3</v>
+        <v>90.89</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>81.3</v>
+        <v>90.89</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="4"/>
-        <v>82.3</v>
+        <v>91.89</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>A-</v>
+        <v>A+</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="3"/>
-        <v>78.3</v>
+        <v>85.89</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>78.3</v>
+        <v>85.89</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="4"/>
-        <v>79.3</v>
+        <v>86.89</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1">
         <v>57</v>
@@ -860,29 +869,29 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="3"/>
-        <v>78.3</v>
+        <v>80.89</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>78.3</v>
+        <v>80.89</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="4"/>
-        <v>79.3</v>
+        <v>81.89</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B+</v>
+        <v>A-</v>
       </c>
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
         <v>56</v>
@@ -893,29 +902,29 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="3"/>
-        <v>77.3</v>
+        <v>79.89</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>77.3</v>
+        <v>79.89</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="4"/>
-        <v>78.3</v>
+        <v>80.89</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B+</v>
+        <v>A-</v>
       </c>
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <v>56</v>
@@ -926,29 +935,29 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="3"/>
-        <v>77.3</v>
+        <v>79.89</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="1"/>
-        <v>77.3</v>
+        <v>79.89</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="4"/>
-        <v>78.3</v>
+        <v>80.89</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B+</v>
+        <v>A-</v>
       </c>
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1">
         <v>53</v>
@@ -959,29 +968,29 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="3"/>
-        <v>74.3</v>
+        <v>76.89</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>74.3</v>
+        <v>76.89</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="4"/>
-        <v>75.3</v>
+        <v>77.89</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1">
         <v>53</v>
@@ -992,29 +1001,29 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="3"/>
-        <v>74.3</v>
+        <v>76.89</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>74.3</v>
+        <v>76.89</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="4"/>
-        <v>75.3</v>
+        <v>77.89</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1">
         <v>52</v>
@@ -1025,29 +1034,29 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="3"/>
-        <v>73.3</v>
+        <v>75.89</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>73.3</v>
+        <v>75.89</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="4"/>
-        <v>74.3</v>
+        <v>76.89</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1">
         <v>50</v>
@@ -1058,29 +1067,29 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="3"/>
-        <v>71.3</v>
+        <v>73.89</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>71.3</v>
+        <v>73.89</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="4"/>
-        <v>72.3</v>
+        <v>74.89</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B-</v>
+        <v>B</v>
       </c>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1">
         <v>48</v>
@@ -1091,29 +1100,29 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="3"/>
-        <v>69.3</v>
+        <v>71.89</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>69.3</v>
+        <v>71.89</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="4"/>
-        <v>70.3</v>
+        <v>72.89</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B-</v>
+        <v>B</v>
       </c>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>47</v>
@@ -1124,29 +1133,29 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="3"/>
-        <v>68.3</v>
+        <v>70.89</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>68.3</v>
+        <v>70.89</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="4"/>
-        <v>69.3</v>
+        <v>71.89</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>C+</v>
+        <v>B-</v>
       </c>
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>46</v>
@@ -1157,29 +1166,29 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="3"/>
-        <v>67.3</v>
+        <v>69.89</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>67.3</v>
+        <v>69.89</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="4"/>
-        <v>68.3</v>
+        <v>70.89</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H19" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>C+</v>
+        <v>B-</v>
       </c>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1">
         <v>45</v>
@@ -1190,28 +1199,28 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="3"/>
-        <v>66.3</v>
+        <v>68.89</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>66.3</v>
+        <v>68.89</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="4"/>
-        <v>67.3</v>
+        <v>69.89</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>C+</v>
+        <v>B-</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1">
         <v>45</v>
@@ -1222,28 +1231,28 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="3"/>
-        <v>66.3</v>
+        <v>68.89</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="1"/>
-        <v>66.3</v>
+        <v>68.89</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="4"/>
-        <v>67.3</v>
+        <v>69.89</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>C+</v>
+        <v>B-</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1">
         <v>40</v>
@@ -1254,28 +1263,28 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="3"/>
-        <v>61.3</v>
+        <v>63.89</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>61.3</v>
+        <v>63.89</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="4"/>
-        <v>62.3</v>
+        <v>64.89</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>C-</v>
+        <v>C</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <v>37</v>
@@ -1286,19 +1295,19 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="3"/>
-        <v>58.3</v>
+        <v>60.89</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>58.3</v>
+        <v>60.89</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>61.89</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H23" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1307,7 +1316,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1">
         <v>36</v>
@@ -1318,19 +1327,19 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="3"/>
-        <v>57.3</v>
+        <v>59.89</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>57.3</v>
+        <v>59.89</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>60.89</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H24" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1339,7 +1348,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1">
         <v>35</v>
@@ -1350,11 +1359,11 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" si="3"/>
-        <v>56.3</v>
+        <v>58.89</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>56.3</v>
+        <v>58.89</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="4"/>
@@ -1371,7 +1380,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1">
         <v>35</v>
@@ -1382,11 +1391,11 @@
       </c>
       <c r="D26" s="1">
         <f t="shared" si="3"/>
-        <v>56.3</v>
+        <v>58.89</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="1"/>
-        <v>56.3</v>
+        <v>58.89</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="4"/>
@@ -1403,7 +1412,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1">
         <v>34</v>
@@ -1414,11 +1423,11 @@
       </c>
       <c r="D27" s="1">
         <f t="shared" si="3"/>
-        <v>55.3</v>
+        <v>57.89</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>55.3</v>
+        <v>57.89</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="4"/>
@@ -1435,22 +1444,22 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="3"/>
-        <v>55.3</v>
+        <v>56.89</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="1"/>
-        <v>55.3</v>
+        <v>56.89</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="4"/>
@@ -1467,35 +1476,35 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" ref="B29:G29" si="6">ROUND(AVERAGE(B2:B28),2)</f>
-        <v>53.7</v>
+        <v>54.11</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="6"/>
-        <v>53.7</v>
+        <v>54.11</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="6"/>
-        <v>75.42</v>
+        <v>77.7</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="6"/>
-        <v>75.22</v>
+        <v>77.78</v>
       </c>
       <c r="H29" s="1" t="str">
         <f>IF(G29&gt;=90, "A+", IF(G29&gt;=86, "A", IF(G29&gt;=80, "A-", IF(G29&gt;=77, "B+", IF(G29&gt;=73, "B", IF(G29&gt;=70, "B-", IF(G29&gt;=67, "C+", IF(G29&gt;=63, "C", IF(G29&gt;=60, "C-", "F")))))))))</f>
-        <v>B</v>
+        <v>B+</v>
       </c>
     </row>
   </sheetData>

--- a/grade/grade.xlsx
+++ b/grade/grade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/github/political_ideology/grade/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/github/ccp/grade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAEE0AC-5168-BA44-A7C7-3EB01685A803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2067229C-58B2-BF45-8F3E-E426FC4FA108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="600" windowWidth="23020" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="600" windowWidth="24800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,27 +62,11 @@
     <t>423__05</t>
   </si>
   <si>
-    <t>Grade_I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grade_II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grade_III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Average</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grade_0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -546,9 +530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
@@ -568,58 +550,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:C28" si="0" xml:space="preserve"> ROUND((B2 * 1), 2)</f>
-        <v>88</v>
+        <f xml:space="preserve"> ROUND((B2 * 1), 2)</f>
+        <v>95</v>
       </c>
       <c r="D2" s="1">
-        <f>C2 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>111.89</v>
+        <f>C2 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>111</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E28" si="1">IF(MAX($D$2:$D$25) &lt; 99.49, D2 + (99.49 - MAX($D$2:$D$25)), D2)</f>
-        <v>111.89</v>
+        <f>IF(AND(OR(B2=100), D2&gt;99.49), 100, IF(AND(B2&lt;100, D2&gt;99.49), 99,  IF(OR(AND(D2&gt;49.9, D2&lt;=59.49), D2&gt;=59.5), IF(D2&gt;=59.5, IF(D2+1&gt;99.49, 99, D2+1), 60), IF(OR(B2=0), 0, D2))))</f>
+        <v>99</v>
       </c>
       <c r="F2" s="1">
-        <f>IF(AND(OR(B2=100), E2&gt;99.49), 100, IF(AND(B2&lt;100, E2&gt;99.49), 99,  IF(OR(AND(E2&gt;54.5, E2&lt;=59.49), E2&gt;=59.5), IF(E2&gt;=59.5, IF(E2+1&gt;99.49, 99, E2+1), 60), IF(OR(B2=0), 0, E2))))</f>
+        <f>ROUND(E2,0)</f>
         <v>99</v>
       </c>
-      <c r="G2" s="1">
-        <f t="shared" ref="G2:G28" si="2">ROUND(F2,0)</f>
-        <v>99</v>
-      </c>
-      <c r="H2" s="1" t="str">
-        <f>IF(G2&gt;=90, "A+", IF(G2&gt;=85, "A", IF(G2&gt;=80, "A-", IF(G2&gt;=77, "B+", IF(G2&gt;=73, "B", IF(G2&gt;=70, "B-", IF(G2&gt;=67, "C+", IF(G2&gt;=63, "C", IF(G2&gt;=60, "C-", "F")))))))))</f>
+      <c r="G2" s="1" t="str">
+        <f>IF(F2&gt;=92, "A+", IF(F2&gt;=86, "A", IF(F2&gt;=80, "A-", IF(F2&gt;=76, "B+", IF(F2&gt;=72, "B", IF(F2&gt;=68, "B-", IF(F2&gt;=64, "C+", IF(F2&gt;=61, "C", IF(F2&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="I2" s="4"/>
@@ -630,30 +596,26 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" si="0"/>
-        <v>87</v>
+        <f xml:space="preserve"> ROUND((B3 * 1), 2)</f>
+        <v>93</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D28" si="3">C3 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>110.89</v>
+        <f>C3 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>109</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" si="1"/>
-        <v>110.89</v>
+        <f>IF(AND(OR(B3=100), D3&gt;99.49), 100, IF(AND(B3&lt;100, D3&gt;99.49), 99,  IF(OR(AND(D3&gt;49.9, D3&lt;=59.49), D3&gt;=59.5), IF(D3&gt;=59.5, IF(D3+1&gt;99.49, 99, D3+1), 60), IF(OR(B3=0), 0, D3))))</f>
+        <v>99</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F28" si="4">IF(AND(OR(B3=100), E3&gt;99.49), 100, IF(AND(B3&lt;100, E3&gt;99.49), 99,  IF(OR(AND(E3&gt;54.5, E3&lt;=59.49), E3&gt;=59.5), IF(E3&gt;=59.5, IF(E3+1&gt;99.49, 99, E3+1), 60), IF(OR(B3=0), 0, E3))))</f>
+        <f>ROUND(E3,0)</f>
         <v>99</v>
       </c>
-      <c r="G3" s="1">
-        <f t="shared" si="2"/>
-        <v>99</v>
-      </c>
-      <c r="H3" s="1" t="str">
-        <f t="shared" ref="H3:H28" si="5">IF(G3&gt;=90, "A+", IF(G3&gt;=85, "A", IF(G3&gt;=80, "A-", IF(G3&gt;=77, "B+", IF(G3&gt;=73, "B", IF(G3&gt;=70, "B-", IF(G3&gt;=67, "C+", IF(G3&gt;=63, "C", IF(G3&gt;=60, "C-", "F")))))))))</f>
+      <c r="G3" s="1" t="str">
+        <f>IF(F3&gt;=92, "A+", IF(F3&gt;=86, "A", IF(F3&gt;=80, "A-", IF(F3&gt;=76, "B+", IF(F3&gt;=72, "B", IF(F3&gt;=68, "B-", IF(F3&gt;=64, "C+", IF(F3&gt;=61, "C", IF(F3&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="O3" s="3"/>
@@ -666,61 +628,53 @@
         <v>86</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> ROUND((B4 * 1), 2)</f>
         <v>86</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="3"/>
-        <v>109.89</v>
+        <f>C4 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>102</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="1"/>
-        <v>109.89</v>
+        <f>IF(AND(OR(B4=100), D4&gt;99.49), 100, IF(AND(B4&lt;100, D4&gt;99.49), 99,  IF(OR(AND(D4&gt;49.9, D4&lt;=59.49), D4&gt;=59.5), IF(D4&gt;=59.5, IF(D4+1&gt;99.49, 99, D4+1), 60), IF(OR(B4=0), 0, D4))))</f>
+        <v>99</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND(E4,0)</f>
         <v>99</v>
       </c>
-      <c r="G4" s="1">
-        <f t="shared" si="2"/>
-        <v>99</v>
-      </c>
-      <c r="H4" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="G4" s="1" t="str">
+        <f>IF(F4&gt;=92, "A+", IF(F4&gt;=86, "A", IF(F4&gt;=80, "A-", IF(F4&gt;=76, "B+", IF(F4&gt;=72, "B", IF(F4&gt;=68, "B-", IF(F4&gt;=64, "C+", IF(F4&gt;=61, "C", IF(F4&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>72</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> ROUND((B5 * 1), 2)</f>
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="3"/>
-        <v>95.89</v>
+        <f>C5 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>88</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>95.89</v>
+        <f>IF(AND(OR(B5=100), D5&gt;99.49), 100, IF(AND(B5&lt;100, D5&gt;99.49), 99,  IF(OR(AND(D5&gt;49.9, D5&lt;=59.49), D5&gt;=59.5), IF(D5&gt;=59.5, IF(D5+1&gt;99.49, 99, D5+1), 60), IF(OR(B5=0), 0, D5))))</f>
+        <v>89</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="4"/>
-        <v>96.89</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="2"/>
-        <v>97</v>
-      </c>
-      <c r="H5" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>A+</v>
+        <f>ROUND(E5,0)</f>
+        <v>89</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>IF(F5&gt;=92, "A+", IF(F5&gt;=86, "A", IF(F5&gt;=80, "A-", IF(F5&gt;=76, "B+", IF(F5&gt;=72, "B", IF(F5&gt;=68, "B-", IF(F5&gt;=64, "C+", IF(F5&gt;=61, "C", IF(F5&gt;=60, "C-", "F")))))))))</f>
+        <v>A</v>
       </c>
       <c r="O5" s="3"/>
     </row>
@@ -732,28 +686,24 @@
         <v>72</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> ROUND((B6 * 1), 2)</f>
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="3"/>
-        <v>95.89</v>
+        <f>C6 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>88</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
-        <v>95.89</v>
+        <f>IF(AND(OR(B6=100), D6&gt;99.49), 100, IF(AND(B6&lt;100, D6&gt;99.49), 99,  IF(OR(AND(D6&gt;49.9, D6&lt;=59.49), D6&gt;=59.5), IF(D6&gt;=59.5, IF(D6+1&gt;99.49, 99, D6+1), 60), IF(OR(B6=0), 0, D6))))</f>
+        <v>89</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="4"/>
-        <v>96.89</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="2"/>
-        <v>97</v>
-      </c>
-      <c r="H6" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>A+</v>
+        <f>ROUND(E6,0)</f>
+        <v>89</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f>IF(F6&gt;=92, "A+", IF(F6&gt;=86, "A", IF(F6&gt;=80, "A-", IF(F6&gt;=76, "B+", IF(F6&gt;=72, "B", IF(F6&gt;=68, "B-", IF(F6&gt;=64, "C+", IF(F6&gt;=61, "C", IF(F6&gt;=60, "C-", "F")))))))))</f>
+        <v>A</v>
       </c>
       <c r="O6" s="3"/>
     </row>
@@ -765,28 +715,24 @@
         <v>69</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> ROUND((B7 * 1), 2)</f>
         <v>69</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="3"/>
-        <v>92.89</v>
+        <f>C7 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>85</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>92.89</v>
+        <f>IF(AND(OR(B7=100), D7&gt;99.49), 100, IF(AND(B7&lt;100, D7&gt;99.49), 99,  IF(OR(AND(D7&gt;49.9, D7&lt;=59.49), D7&gt;=59.5), IF(D7&gt;=59.5, IF(D7+1&gt;99.49, 99, D7+1), 60), IF(OR(B7=0), 0, D7))))</f>
+        <v>86</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="4"/>
-        <v>93.89</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
-      <c r="H7" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>A+</v>
+        <f>ROUND(E7,0)</f>
+        <v>86</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f>IF(F7&gt;=92, "A+", IF(F7&gt;=86, "A", IF(F7&gt;=80, "A-", IF(F7&gt;=76, "B+", IF(F7&gt;=72, "B", IF(F7&gt;=68, "B-", IF(F7&gt;=64, "C+", IF(F7&gt;=61, "C", IF(F7&gt;=60, "C-", "F")))))))))</f>
+        <v>A</v>
       </c>
       <c r="O7" s="3"/>
     </row>
@@ -795,726 +741,638 @@
         <v>22</v>
       </c>
       <c r="B8" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="0"/>
-        <v>67</v>
+        <f xml:space="preserve"> ROUND((B8 * 1), 2)</f>
+        <v>68</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="3"/>
-        <v>90.89</v>
+        <f>C8 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>84</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>90.89</v>
+        <f>IF(AND(OR(B8=100), D8&gt;99.49), 100, IF(AND(B8&lt;100, D8&gt;99.49), 99,  IF(OR(AND(D8&gt;49.9, D8&lt;=59.49), D8&gt;=59.5), IF(D8&gt;=59.5, IF(D8+1&gt;99.49, 99, D8+1), 60), IF(OR(B8=0), 0, D8))))</f>
+        <v>85</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="4"/>
-        <v>91.89</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="2"/>
-        <v>92</v>
-      </c>
-      <c r="H8" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>A+</v>
+        <f>ROUND(E8,0)</f>
+        <v>85</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>IF(F8&gt;=92, "A+", IF(F8&gt;=86, "A", IF(F8&gt;=80, "A-", IF(F8&gt;=76, "B+", IF(F8&gt;=72, "B", IF(F8&gt;=68, "B-", IF(F8&gt;=64, "C+", IF(F8&gt;=61, "C", IF(F8&gt;=60, "C-", "F")))))))))</f>
+        <v>A-</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>62</v>
+        <f xml:space="preserve"> ROUND((B9 * 1), 2)</f>
+        <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="3"/>
-        <v>85.89</v>
+        <f>C9 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>83</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>85.89</v>
+        <f>IF(AND(OR(B9=100), D9&gt;99.49), 100, IF(AND(B9&lt;100, D9&gt;99.49), 99,  IF(OR(AND(D9&gt;49.9, D9&lt;=59.49), D9&gt;=59.5), IF(D9&gt;=59.5, IF(D9+1&gt;99.49, 99, D9+1), 60), IF(OR(B9=0), 0, D9))))</f>
+        <v>84</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="4"/>
-        <v>86.89</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="2"/>
-        <v>87</v>
-      </c>
-      <c r="H9" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
+        <f>ROUND(E9,0)</f>
+        <v>84</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>IF(F9&gt;=92, "A+", IF(F9&gt;=86, "A", IF(F9&gt;=80, "A-", IF(F9&gt;=76, "B+", IF(F9&gt;=72, "B", IF(F9&gt;=68, "B-", IF(F9&gt;=64, "C+", IF(F9&gt;=61, "C", IF(F9&gt;=60, "C-", "F")))))))))</f>
+        <v>A-</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <f xml:space="preserve"> ROUND((B10 * 1), 2)</f>
+        <v>66</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="3"/>
-        <v>80.89</v>
+        <f>C10 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>82</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>80.89</v>
+        <f>IF(AND(OR(B10=100), D10&gt;99.49), 100, IF(AND(B10&lt;100, D10&gt;99.49), 99,  IF(OR(AND(D10&gt;49.9, D10&lt;=59.49), D10&gt;=59.5), IF(D10&gt;=59.5, IF(D10+1&gt;99.49, 99, D10+1), 60), IF(OR(B10=0), 0, D10))))</f>
+        <v>83</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="4"/>
-        <v>81.89</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="2"/>
-        <v>82</v>
-      </c>
-      <c r="H10" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>ROUND(E10,0)</f>
+        <v>83</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>IF(F10&gt;=92, "A+", IF(F10&gt;=86, "A", IF(F10&gt;=80, "A-", IF(F10&gt;=76, "B+", IF(F10&gt;=72, "B", IF(F10&gt;=68, "B-", IF(F10&gt;=64, "C+", IF(F10&gt;=61, "C", IF(F10&gt;=60, "C-", "F")))))))))</f>
         <v>A-</v>
       </c>
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <f xml:space="preserve"> ROUND((B11 * 1), 2)</f>
+        <v>65</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="3"/>
-        <v>79.89</v>
+        <f>C11 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>81</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>79.89</v>
+        <f>IF(AND(OR(B11=100), D11&gt;99.49), 100, IF(AND(B11&lt;100, D11&gt;99.49), 99,  IF(OR(AND(D11&gt;49.9, D11&lt;=59.49), D11&gt;=59.5), IF(D11&gt;=59.5, IF(D11+1&gt;99.49, 99, D11+1), 60), IF(OR(B11=0), 0, D11))))</f>
+        <v>82</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="4"/>
-        <v>80.89</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="H11" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>ROUND(E11,0)</f>
+        <v>82</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>IF(F11&gt;=92, "A+", IF(F11&gt;=86, "A", IF(F11&gt;=80, "A-", IF(F11&gt;=76, "B+", IF(F11&gt;=72, "B", IF(F11&gt;=68, "B-", IF(F11&gt;=64, "C+", IF(F11&gt;=61, "C", IF(F11&gt;=60, "C-", "F")))))))))</f>
         <v>A-</v>
       </c>
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <f xml:space="preserve"> ROUND((B12 * 1), 2)</f>
+        <v>62</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="3"/>
-        <v>79.89</v>
+        <f>C12 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>78</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>79.89</v>
+        <f>IF(AND(OR(B12=100), D12&gt;99.49), 100, IF(AND(B12&lt;100, D12&gt;99.49), 99,  IF(OR(AND(D12&gt;49.9, D12&lt;=59.49), D12&gt;=59.5), IF(D12&gt;=59.5, IF(D12+1&gt;99.49, 99, D12+1), 60), IF(OR(B12=0), 0, D12))))</f>
+        <v>79</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="4"/>
-        <v>80.89</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="H12" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>A-</v>
+        <f>ROUND(E12,0)</f>
+        <v>79</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f>IF(F12&gt;=92, "A+", IF(F12&gt;=86, "A", IF(F12&gt;=80, "A-", IF(F12&gt;=76, "B+", IF(F12&gt;=72, "B", IF(F12&gt;=68, "B-", IF(F12&gt;=64, "C+", IF(F12&gt;=61, "C", IF(F12&gt;=60, "C-", "F")))))))))</f>
+        <v>B+</v>
       </c>
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
+        <f xml:space="preserve"> ROUND((B13 * 1), 2)</f>
+        <v>61</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="3"/>
-        <v>76.89</v>
+        <f>C13 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>77</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>76.89</v>
+        <f>IF(AND(OR(B13=100), D13&gt;99.49), 100, IF(AND(B13&lt;100, D13&gt;99.49), 99,  IF(OR(AND(D13&gt;49.9, D13&lt;=59.49), D13&gt;=59.5), IF(D13&gt;=59.5, IF(D13+1&gt;99.49, 99, D13+1), 60), IF(OR(B13=0), 0, D13))))</f>
+        <v>78</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="4"/>
-        <v>77.89</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(E13,0)</f>
         <v>78</v>
       </c>
-      <c r="H13" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="G13" s="1" t="str">
+        <f>IF(F13&gt;=92, "A+", IF(F13&gt;=86, "A", IF(F13&gt;=80, "A-", IF(F13&gt;=76, "B+", IF(F13&gt;=72, "B", IF(F13&gt;=68, "B-", IF(F13&gt;=64, "C+", IF(F13&gt;=61, "C", IF(F13&gt;=60, "C-", "F")))))))))</f>
         <v>B+</v>
       </c>
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
+        <f xml:space="preserve"> ROUND((B14 * 1), 2)</f>
+        <v>57</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="3"/>
-        <v>76.89</v>
+        <f>C14 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>73</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>76.89</v>
+        <f>IF(AND(OR(B14=100), D14&gt;99.49), 100, IF(AND(B14&lt;100, D14&gt;99.49), 99,  IF(OR(AND(D14&gt;49.9, D14&lt;=59.49), D14&gt;=59.5), IF(D14&gt;=59.5, IF(D14+1&gt;99.49, 99, D14+1), 60), IF(OR(B14=0), 0, D14))))</f>
+        <v>74</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="4"/>
-        <v>77.89</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="2"/>
-        <v>78</v>
-      </c>
-      <c r="H14" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>B+</v>
+        <f>ROUND(E14,0)</f>
+        <v>74</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>IF(F14&gt;=92, "A+", IF(F14&gt;=86, "A", IF(F14&gt;=80, "A-", IF(F14&gt;=76, "B+", IF(F14&gt;=72, "B", IF(F14&gt;=68, "B-", IF(F14&gt;=64, "C+", IF(F14&gt;=61, "C", IF(F14&gt;=60, "C-", "F")))))))))</f>
+        <v>B</v>
       </c>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <f xml:space="preserve"> ROUND((B15 * 1), 2)</f>
+        <v>56</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="3"/>
-        <v>75.89</v>
+        <f>C15 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>72</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>75.89</v>
+        <f>IF(AND(OR(B15=100), D15&gt;99.49), 100, IF(AND(B15&lt;100, D15&gt;99.49), 99,  IF(OR(AND(D15&gt;49.9, D15&lt;=59.49), D15&gt;=59.5), IF(D15&gt;=59.5, IF(D15+1&gt;99.49, 99, D15+1), 60), IF(OR(B15=0), 0, D15))))</f>
+        <v>73</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="4"/>
-        <v>76.89</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="2"/>
-        <v>77</v>
-      </c>
-      <c r="H15" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>B+</v>
+        <f>ROUND(E15,0)</f>
+        <v>73</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f>IF(F15&gt;=92, "A+", IF(F15&gt;=86, "A", IF(F15&gt;=80, "A-", IF(F15&gt;=76, "B+", IF(F15&gt;=72, "B", IF(F15&gt;=68, "B-", IF(F15&gt;=64, "C+", IF(F15&gt;=61, "C", IF(F15&gt;=60, "C-", "F")))))))))</f>
+        <v>B</v>
       </c>
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f xml:space="preserve"> ROUND((B16 * 1), 2)</f>
+        <v>56</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="3"/>
-        <v>73.89</v>
+        <f>C16 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>72</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>73.89</v>
+        <f>IF(AND(OR(B16=100), D16&gt;99.49), 100, IF(AND(B16&lt;100, D16&gt;99.49), 99,  IF(OR(AND(D16&gt;49.9, D16&lt;=59.49), D16&gt;=59.5), IF(D16&gt;=59.5, IF(D16+1&gt;99.49, 99, D16+1), 60), IF(OR(B16=0), 0, D16))))</f>
+        <v>73</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="4"/>
-        <v>74.89</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="H16" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>ROUND(E16,0)</f>
+        <v>73</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f>IF(F16&gt;=92, "A+", IF(F16&gt;=86, "A", IF(F16&gt;=80, "A-", IF(F16&gt;=76, "B+", IF(F16&gt;=72, "B", IF(F16&gt;=68, "B-", IF(F16&gt;=64, "C+", IF(F16&gt;=61, "C", IF(F16&gt;=60, "C-", "F")))))))))</f>
         <v>B</v>
       </c>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <f xml:space="preserve"> ROUND((B17 * 1), 2)</f>
+        <v>53</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="3"/>
-        <v>71.89</v>
+        <f>C17 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>69</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>71.89</v>
+        <f>IF(AND(OR(B17=100), D17&gt;99.49), 100, IF(AND(B17&lt;100, D17&gt;99.49), 99,  IF(OR(AND(D17&gt;49.9, D17&lt;=59.49), D17&gt;=59.5), IF(D17&gt;=59.5, IF(D17+1&gt;99.49, 99, D17+1), 60), IF(OR(B17=0), 0, D17))))</f>
+        <v>70</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="4"/>
-        <v>72.89</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="2"/>
-        <v>73</v>
-      </c>
-      <c r="H17" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
+        <f>ROUND(E17,0)</f>
+        <v>70</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f>IF(F17&gt;=92, "A+", IF(F17&gt;=86, "A", IF(F17&gt;=80, "A-", IF(F17&gt;=76, "B+", IF(F17&gt;=72, "B", IF(F17&gt;=68, "B-", IF(F17&gt;=64, "C+", IF(F17&gt;=61, "C", IF(F17&gt;=60, "C-", "F")))))))))</f>
+        <v>B-</v>
       </c>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>47</v>
+        <f xml:space="preserve"> ROUND((B18 * 1), 2)</f>
+        <v>53</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="3"/>
-        <v>70.89</v>
+        <f>C18 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>69</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>70.89</v>
+        <f>IF(AND(OR(B18=100), D18&gt;99.49), 100, IF(AND(B18&lt;100, D18&gt;99.49), 99,  IF(OR(AND(D18&gt;49.9, D18&lt;=59.49), D18&gt;=59.5), IF(D18&gt;=59.5, IF(D18+1&gt;99.49, 99, D18+1), 60), IF(OR(B18=0), 0, D18))))</f>
+        <v>70</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="4"/>
-        <v>71.89</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="H18" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>ROUND(E18,0)</f>
+        <v>70</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f>IF(F18&gt;=92, "A+", IF(F18&gt;=86, "A", IF(F18&gt;=80, "A-", IF(F18&gt;=76, "B+", IF(F18&gt;=72, "B", IF(F18&gt;=68, "B-", IF(F18&gt;=64, "C+", IF(F18&gt;=61, "C", IF(F18&gt;=60, "C-", "F")))))))))</f>
         <v>B-</v>
       </c>
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <f xml:space="preserve"> ROUND((B19 * 1), 2)</f>
+        <v>52</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="3"/>
-        <v>69.89</v>
+        <f>C19 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>68</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>69.89</v>
+        <f>IF(AND(OR(B19=100), D19&gt;99.49), 100, IF(AND(B19&lt;100, D19&gt;99.49), 99,  IF(OR(AND(D19&gt;49.9, D19&lt;=59.49), D19&gt;=59.5), IF(D19&gt;=59.5, IF(D19+1&gt;99.49, 99, D19+1), 60), IF(OR(B19=0), 0, D19))))</f>
+        <v>69</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="4"/>
-        <v>70.89</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="H19" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>ROUND(E19,0)</f>
+        <v>69</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f>IF(F19&gt;=92, "A+", IF(F19&gt;=86, "A", IF(F19&gt;=80, "A-", IF(F19&gt;=76, "B+", IF(F19&gt;=72, "B", IF(F19&gt;=68, "B-", IF(F19&gt;=64, "C+", IF(F19&gt;=61, "C", IF(F19&gt;=60, "C-", "F")))))))))</f>
         <v>B-</v>
       </c>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f xml:space="preserve"> ROUND((B20 * 1), 2)</f>
+        <v>50</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="3"/>
-        <v>68.89</v>
+        <f>C20 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>66</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
-        <v>68.89</v>
+        <f>IF(AND(OR(B20=100), D20&gt;99.49), 100, IF(AND(B20&lt;100, D20&gt;99.49), 99,  IF(OR(AND(D20&gt;49.9, D20&lt;=59.49), D20&gt;=59.5), IF(D20&gt;=59.5, IF(D20+1&gt;99.49, 99, D20+1), 60), IF(OR(B20=0), 0, D20))))</f>
+        <v>67</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="4"/>
-        <v>69.89</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="H20" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>B-</v>
+        <f>ROUND(E20,0)</f>
+        <v>67</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f>IF(F20&gt;=92, "A+", IF(F20&gt;=86, "A", IF(F20&gt;=80, "A-", IF(F20&gt;=76, "B+", IF(F20&gt;=72, "B", IF(F20&gt;=68, "B-", IF(F20&gt;=64, "C+", IF(F20&gt;=61, "C", IF(F20&gt;=60, "C-", "F")))))))))</f>
+        <v>C+</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f xml:space="preserve"> ROUND((B21 * 1), 2)</f>
+        <v>48</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="3"/>
-        <v>68.89</v>
+        <f>C21 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>64</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
-        <v>68.89</v>
+        <f>IF(AND(OR(B21=100), D21&gt;99.49), 100, IF(AND(B21&lt;100, D21&gt;99.49), 99,  IF(OR(AND(D21&gt;49.9, D21&lt;=59.49), D21&gt;=59.5), IF(D21&gt;=59.5, IF(D21+1&gt;99.49, 99, D21+1), 60), IF(OR(B21=0), 0, D21))))</f>
+        <v>65</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="4"/>
-        <v>69.89</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="H21" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>B-</v>
+        <f>ROUND(E21,0)</f>
+        <v>65</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f>IF(F21&gt;=92, "A+", IF(F21&gt;=86, "A", IF(F21&gt;=80, "A-", IF(F21&gt;=76, "B+", IF(F21&gt;=72, "B", IF(F21&gt;=68, "B-", IF(F21&gt;=64, "C+", IF(F21&gt;=61, "C", IF(F21&gt;=60, "C-", "F")))))))))</f>
+        <v>C+</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f xml:space="preserve"> ROUND((B22 * 1), 2)</f>
+        <v>47</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="3"/>
-        <v>63.89</v>
+        <f>C22 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>63</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
-        <v>63.89</v>
+        <f>IF(AND(OR(B22=100), D22&gt;99.49), 100, IF(AND(B22&lt;100, D22&gt;99.49), 99,  IF(OR(AND(D22&gt;49.9, D22&lt;=59.49), D22&gt;=59.5), IF(D22&gt;=59.5, IF(D22+1&gt;99.49, 99, D22+1), 60), IF(OR(B22=0), 0, D22))))</f>
+        <v>64</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="4"/>
-        <v>64.89</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="H22" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>C</v>
+        <f>ROUND(E22,0)</f>
+        <v>64</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f>IF(F22&gt;=92, "A+", IF(F22&gt;=86, "A", IF(F22&gt;=80, "A-", IF(F22&gt;=76, "B+", IF(F22&gt;=72, "B", IF(F22&gt;=68, "B-", IF(F22&gt;=64, "C+", IF(F22&gt;=61, "C", IF(F22&gt;=60, "C-", "F")))))))))</f>
+        <v>C+</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="0"/>
-        <v>37</v>
+        <f xml:space="preserve"> ROUND((B23 * 1), 2)</f>
+        <v>46</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="3"/>
-        <v>60.89</v>
+        <f>C23 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>62</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
-        <v>60.89</v>
+        <f>IF(AND(OR(B23=100), D23&gt;99.49), 100, IF(AND(B23&lt;100, D23&gt;99.49), 99,  IF(OR(AND(D23&gt;49.9, D23&lt;=59.49), D23&gt;=59.5), IF(D23&gt;=59.5, IF(D23+1&gt;99.49, 99, D23+1), 60), IF(OR(B23=0), 0, D23))))</f>
+        <v>63</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="4"/>
-        <v>61.89</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-      <c r="H23" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>C-</v>
+        <f>ROUND(E23,0)</f>
+        <v>63</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f>IF(F23&gt;=92, "A+", IF(F23&gt;=86, "A", IF(F23&gt;=80, "A-", IF(F23&gt;=76, "B+", IF(F23&gt;=72, "B", IF(F23&gt;=68, "B-", IF(F23&gt;=64, "C+", IF(F23&gt;=61, "C", IF(F23&gt;=60, "C-", "F")))))))))</f>
+        <v>C</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f xml:space="preserve"> ROUND((B24 * 1), 2)</f>
+        <v>45</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="3"/>
-        <v>59.89</v>
+        <f>C24 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>61</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
-        <v>59.89</v>
+        <f>IF(AND(OR(B24=100), D24&gt;99.49), 100, IF(AND(B24&lt;100, D24&gt;99.49), 99,  IF(OR(AND(D24&gt;49.9, D24&lt;=59.49), D24&gt;=59.5), IF(D24&gt;=59.5, IF(D24+1&gt;99.49, 99, D24+1), 60), IF(OR(B24=0), 0, D24))))</f>
+        <v>62</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="4"/>
-        <v>60.89</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="H24" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>C-</v>
+        <f>ROUND(E24,0)</f>
+        <v>62</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f>IF(F24&gt;=92, "A+", IF(F24&gt;=86, "A", IF(F24&gt;=80, "A-", IF(F24&gt;=76, "B+", IF(F24&gt;=72, "B", IF(F24&gt;=68, "B-", IF(F24&gt;=64, "C+", IF(F24&gt;=61, "C", IF(F24&gt;=60, "C-", "F")))))))))</f>
+        <v>C</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f xml:space="preserve"> ROUND((B25 * 1), 2)</f>
+        <v>45</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="3"/>
-        <v>58.89</v>
+        <f>C25 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>61</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
-        <v>58.89</v>
+        <f>IF(AND(OR(B25=100), D25&gt;99.49), 100, IF(AND(B25&lt;100, D25&gt;99.49), 99,  IF(OR(AND(D25&gt;49.9, D25&lt;=59.49), D25&gt;=59.5), IF(D25&gt;=59.5, IF(D25+1&gt;99.49, 99, D25+1), 60), IF(OR(B25=0), 0, D25))))</f>
+        <v>62</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="H25" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>C-</v>
+        <f>ROUND(E25,0)</f>
+        <v>62</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f>IF(F25&gt;=92, "A+", IF(F25&gt;=86, "A", IF(F25&gt;=80, "A-", IF(F25&gt;=76, "B+", IF(F25&gt;=72, "B", IF(F25&gt;=68, "B-", IF(F25&gt;=64, "C+", IF(F25&gt;=61, "C", IF(F25&gt;=60, "C-", "F")))))))))</f>
+        <v>C</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B26" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f xml:space="preserve"> ROUND((B26 * 1), 2)</f>
+        <v>40</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="3"/>
-        <v>58.89</v>
+        <f>C26 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>56</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
-        <v>58.89</v>
+        <f>IF(AND(OR(B26=100), D26&gt;99.49), 100, IF(AND(B26&lt;100, D26&gt;99.49), 99,  IF(OR(AND(D26&gt;49.9, D26&lt;=59.49), D26&gt;=59.5), IF(D26&gt;=59.5, IF(D26+1&gt;99.49, 99, D26+1), 60), IF(OR(B26=0), 0, D26))))</f>
+        <v>60</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND(E26,0)</f>
         <v>60</v>
       </c>
-      <c r="G26" s="1">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="H26" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="G26" s="1" t="str">
+        <f>IF(F26&gt;=92, "A+", IF(F26&gt;=86, "A", IF(F26&gt;=80, "A-", IF(F26&gt;=76, "B+", IF(F26&gt;=72, "B", IF(F26&gt;=68, "B-", IF(F26&gt;=64, "C+", IF(F26&gt;=61, "C", IF(F26&gt;=60, "C-", "F")))))))))</f>
         <v>C-</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <f xml:space="preserve"> ROUND((B27 * 1), 2)</f>
+        <v>38</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="3"/>
-        <v>57.89</v>
+        <f>C27 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>54</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
-        <v>57.89</v>
+        <f>IF(AND(OR(B27=100), D27&gt;99.49), 100, IF(AND(B27&lt;100, D27&gt;99.49), 99,  IF(OR(AND(D27&gt;49.9, D27&lt;=59.49), D27&gt;=59.5), IF(D27&gt;=59.5, IF(D27+1&gt;99.49, 99, D27+1), 60), IF(OR(B27=0), 0, D27))))</f>
+        <v>60</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND(E27,0)</f>
         <v>60</v>
       </c>
-      <c r="G27" s="1">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="H27" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="G27" s="1" t="str">
+        <f>IF(F27&gt;=92, "A+", IF(F27&gt;=86, "A", IF(F27&gt;=80, "A-", IF(F27&gt;=76, "B+", IF(F27&gt;=72, "B", IF(F27&gt;=68, "B-", IF(F27&gt;=64, "C+", IF(F27&gt;=61, "C", IF(F27&gt;=60, "C-", "F")))))))))</f>
         <v>C-</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f xml:space="preserve"> ROUND((B28 * 1), 2)</f>
+        <v>36</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="3"/>
-        <v>56.89</v>
+        <f>C28 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>52</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
-        <v>56.89</v>
+        <f>IF(AND(OR(B28=100), D28&gt;99.49), 100, IF(AND(B28&lt;100, D28&gt;99.49), 99,  IF(OR(AND(D28&gt;49.9, D28&lt;=59.49), D28&gt;=59.5), IF(D28&gt;=59.5, IF(D28+1&gt;99.49, 99, D28+1), 60), IF(OR(B28=0), 0, D28))))</f>
+        <v>60</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND(E28,0)</f>
         <v>60</v>
       </c>
-      <c r="G28" s="1">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="H28" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="G28" s="1" t="str">
+        <f>IF(F28&gt;=92, "A+", IF(F28&gt;=86, "A", IF(F28&gt;=80, "A-", IF(F28&gt;=76, "B+", IF(F28&gt;=72, "B", IF(F28&gt;=68, "B-", IF(F28&gt;=64, "C+", IF(F28&gt;=61, "C", IF(F28&gt;=60, "C-", "F")))))))))</f>
         <v>C-</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" ref="B29:G29" si="6">ROUND(AVERAGE(B2:B28),2)</f>
-        <v>54.11</v>
+        <f t="shared" ref="B29:D29" si="0">ROUND(AVERAGE(B2:B28),2)</f>
+        <v>59.19</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="6"/>
-        <v>54.11</v>
+        <f t="shared" si="0"/>
+        <v>59.19</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="6"/>
-        <v>78</v>
+        <f t="shared" si="0"/>
+        <v>75.19</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="6"/>
-        <v>78</v>
+        <f>ROUND(AVERAGE(E2:E28),2)</f>
+        <v>75.7</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="6"/>
-        <v>77.7</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="6"/>
-        <v>77.78</v>
-      </c>
-      <c r="H29" s="1" t="str">
-        <f>IF(G29&gt;=90, "A+", IF(G29&gt;=86, "A", IF(G29&gt;=80, "A-", IF(G29&gt;=77, "B+", IF(G29&gt;=73, "B", IF(G29&gt;=70, "B-", IF(G29&gt;=67, "C+", IF(G29&gt;=63, "C", IF(G29&gt;=60, "C-", "F")))))))))</f>
-        <v>B+</v>
+        <f>ROUND(AVERAGE(F2:F28),2)</f>
+        <v>75.7</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f>IF(F29&gt;=90, "A+", IF(F29&gt;=86, "A", IF(F29&gt;=80, "A-", IF(F29&gt;=77, "B+", IF(F29&gt;=73, "B", IF(F29&gt;=70, "B-", IF(F29&gt;=67, "C+", IF(F29&gt;=63, "C", IF(F29&gt;=60, "C-", "F")))))))))</f>
+        <v>B</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H28">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G28">
     <sortCondition descending="1" ref="D2:D28"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:H28">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>OR($G2&lt;60, TRIM($H2)="F")</formula>
+  <conditionalFormatting sqref="F2:G28">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>OR($F2&lt;60, TRIM($G2)="F")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
